--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5239F3-BED0-4F2A-9D98-1DB504E422F4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FD7442-EDD9-4236-A40E-253EC1978F83}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" activeTab="7" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -325,15 +325,6 @@
     <t>Air to air heat recovery</t>
   </si>
   <si>
-    <t>Supply fan</t>
-  </si>
-  <si>
-    <t>Exhaust fan</t>
-  </si>
-  <si>
-    <t>Temperature controller</t>
-  </si>
-  <si>
     <t>OpeningPosition</t>
   </si>
   <si>
@@ -406,49 +397,16 @@
     <t>visibleLightTransmittance</t>
   </si>
   <si>
-    <t>Shade</t>
-  </si>
-  <si>
     <t>Heating meter</t>
   </si>
   <si>
     <t>Indoor temperature sensor</t>
   </si>
   <si>
-    <t>Indoor CO2 sensor</t>
-  </si>
-  <si>
-    <t>Valve position sensor</t>
-  </si>
-  <si>
-    <t>Damper position sensor</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
     <t>Co2</t>
-  </si>
-  <si>
-    <t>Air to air heat recovery;Supply fan</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature BHR sensor</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature AHR sensor</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature AHC sensor</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature AHC property</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature AHR property</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature BHR property</t>
   </si>
   <si>
     <t>Ø20-601b-2 radiator heat property</t>
@@ -460,43 +418,34 @@
     <t>Ø20-601b-2 radiator valve position property</t>
   </si>
   <si>
-    <t>Ø20-601b-2 CO2 property</t>
-  </si>
-  <si>
     <t>Ø20-601b-2 temperature property</t>
-  </si>
-  <si>
-    <t>Ø20-601b-2 temperature property;Ø20-601b-2 CO2 property</t>
   </si>
   <si>
     <t>Ø20-601b-2 shading position property</t>
   </si>
   <si>
-    <t>VE02 Primary Airflow Temperature AHR sensor;Heating coil</t>
-  </si>
-  <si>
-    <t>VE02 Secondary Airflow Temperature BHR sensor</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature AHC sensor;Supply fan</t>
-  </si>
-  <si>
-    <t>VE02 Primary Airflow Temperature BHR sensor;VE02 Primary Airflow Temperature AHR sensor;VE02 Secondary Airflow Temperature BHR sensor;Exhaust fan</t>
-  </si>
-  <si>
-    <t>Outdoor environment;Air to air heat recovery</t>
-  </si>
-  <si>
     <t>Heating coil;Supply damper</t>
   </si>
   <si>
-    <t>Air to air heat recovery;Exhaust damper</t>
+    <t>Air to air heat recovery;Heating coil</t>
   </si>
   <si>
-    <t>VE02 Primary Airflow Temperature BHR property;VE02 Primary Airflow Temperature AHR property;VE02 Secondary Airflow Temperature BHR property</t>
+    <t>Temperature controller</t>
   </si>
   <si>
-    <t>VE02 Secondary Airflow Temperature BHR property</t>
+    <t>HR primary temperature out property</t>
+  </si>
+  <si>
+    <t>HC temperature out property</t>
+  </si>
+  <si>
+    <t>HR primary temperature out sensor</t>
+  </si>
+  <si>
+    <t>HC temperature out sensor</t>
+  </si>
+  <si>
+    <t>HC temperature out sensor;HR primary temperature out sensor</t>
   </si>
 </sst>
 </file>
@@ -683,13 +632,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>323310</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>160692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -724,10 +673,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,7 +975,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C1460C-954B-4409-8D58-1A178EAA6542}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,46 +1045,38 @@
         <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1153,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,115 +1119,57 @@
         <v>61</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A6" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{B410286B-19C8-413D-AA2F-9742B6293571}">
       <formula1>space_names</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{A9040C0C-604B-456F-96D4-0A20D2AB5CEB}">
@@ -1306,7 +1185,7 @@
           <x14:formula1>
             <xm:f>BuildingSpace!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1344,18 +1223,18 @@
         <v>61</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1391,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDB24A9-A7F1-4854-93D9-EBD1381307DD}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,12 +1288,12 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>70</v>
@@ -1422,83 +1301,68 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>82</v>
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>118</v>
+      <c r="A8" t="s">
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{AAC34BEA-A665-4921-AD47-68EC72295E2E}">
       <formula1>property_class</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{A6AE19E1-AABB-4B3E-BED0-3FBE1F503D95}">
+      <formula1>property_instance</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1541,62 +1405,62 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1505,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1521,7 @@
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>60</v>
@@ -1665,10 +1529,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1694,7 +1558,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,10 +1597,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>59</v>
@@ -1810,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1834,13 +1698,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -6895,10 +6759,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -6942,13 +6806,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
@@ -12945,10 +12809,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -12983,13 +12847,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22339,7 +22203,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22362,10 +22226,10 @@
         <v>59</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -22379,10 +22243,10 @@
         <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28373,14 +28237,14 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
@@ -28400,10 +28264,10 @@
         <v>61</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>51</v>
@@ -28438,10 +28302,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I2">
         <f>25000/3600*1.225</f>
@@ -34443,8 +34307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2999C7-12DB-42EA-8FDC-B5FA87CE6F00}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34477,10 +34341,10 @@
         <v>59</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>44</v>
@@ -34511,48 +34375,6 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
-      </c>
-      <c r="I2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
-      </c>
-      <c r="I3">
-        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -40520,7 +40342,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40550,16 +40372,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FD7442-EDD9-4236-A40E-253EC1978F83}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B6AA59-0F8E-4A2E-B024-1D12A69AE559}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
   <si>
     <t>Ventilation system name</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Heating meter</t>
   </si>
   <si>
-    <t>Indoor temperature sensor</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
@@ -439,13 +436,22 @@
     <t>HC temperature out property</t>
   </si>
   <si>
-    <t>HR primary temperature out sensor</t>
+    <t>Valve position sensor</t>
   </si>
   <si>
-    <t>HC temperature out sensor</t>
+    <t>Damper position sensor</t>
   </si>
   <si>
-    <t>HC temperature out sensor;HR primary temperature out sensor</t>
+    <t>Heating coil temperature sensor</t>
+  </si>
+  <si>
+    <t>Heat recovery temperature sensor</t>
+  </si>
+  <si>
+    <t>Space temperature sensor</t>
+  </si>
+  <si>
+    <t>Heating coil temperature sensor;Heat recovery temperature sensor</t>
   </si>
 </sst>
 </file>
@@ -591,13 +597,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,7 +969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1014,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C1460C-954B-4409-8D58-1A178EAA6542}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1035,7 +1040,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1059,24 +1064,24 @@
       <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1093,7 +1098,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1111,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1115,57 +1120,73 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>115</v>
+      <c r="A3" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1198,7 +1219,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1231,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1219,38 +1240,38 @@
       <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1273,7 +1294,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,56 +1305,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -1341,20 +1362,20 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1387,16 +1408,16 @@
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1455,7 +1476,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1505,7 +1526,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,22 +1538,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1558,7 +1579,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1596,10 +1617,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1674,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>106</v>
+      <c r="E2" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1698,13 +1719,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>106</v>
+      <c r="E3" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
@@ -6749,7 +6770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6758,10 +6779,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -6806,13 +6827,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
@@ -12785,7 +12806,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -12799,7 +12820,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -12808,10 +12829,10 @@
       <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12843,17 +12864,17 @@
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>107</v>
+      <c r="E2" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22202,21 +22223,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4B0EA7-434A-4CA3-97FE-A57E5232E2E7}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -22225,10 +22246,10 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22236,17 +22257,17 @@
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>114</v>
+      <c r="D2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28237,7 +28258,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28257,16 +28278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -28302,10 +28323,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="I2">
         <f>25000/3600*1.225</f>
@@ -28333,28 +28354,28 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
@@ -34331,7 +34352,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -34340,10 +34361,10 @@
       <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -40354,7 +40375,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -40366,730 +40387,554 @@
       <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="4"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="4"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="4"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="4"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="4"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="4"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="4"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="4"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="4"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="str">
         <f t="shared" ref="A179:A194" ca="1" si="0">IF(AND(C179&lt;&gt;"",D179&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D179),"_"),C179),"")</f>
         <v/>
       </c>
-      <c r="B179" s="4"/>
       <c r="D179" t="str" cm="1">
         <f t="array" aca="1" ref="D179" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C179))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C179))=1), "C", "")</f>
         <v/>
@@ -41112,7 +40957,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B180" s="4"/>
       <c r="D180" t="str" cm="1">
         <f t="array" aca="1" ref="D180" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C180))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C180))=1), "C", "")</f>
         <v/>
@@ -41135,7 +40979,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B181" s="4"/>
       <c r="D181" t="str" cm="1">
         <f t="array" aca="1" ref="D181" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C181))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C181))=1), "C", "")</f>
         <v/>
@@ -41158,7 +41001,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B182" s="4"/>
       <c r="D182" t="str" cm="1">
         <f t="array" aca="1" ref="D182" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C182))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C182))=1), "C", "")</f>
         <v/>
@@ -41181,7 +41023,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B183" s="4"/>
       <c r="D183" t="str" cm="1">
         <f t="array" aca="1" ref="D183" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C183))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C183))=1), "C", "")</f>
         <v/>
@@ -41204,7 +41045,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B184" s="4"/>
       <c r="D184" t="str" cm="1">
         <f t="array" aca="1" ref="D184" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C184))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C184))=1), "C", "")</f>
         <v/>
@@ -41227,7 +41067,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B185" s="4"/>
       <c r="D185" t="str" cm="1">
         <f t="array" aca="1" ref="D185" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C185))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C185))=1), "C", "")</f>
         <v/>
@@ -41250,7 +41089,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B186" s="4"/>
       <c r="D186" t="str" cm="1">
         <f t="array" aca="1" ref="D186" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C186))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C186))=1), "C", "")</f>
         <v/>
@@ -41273,7 +41111,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B187" s="4"/>
       <c r="D187" t="str" cm="1">
         <f t="array" aca="1" ref="D187" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C187))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C187))=1), "C", "")</f>
         <v/>
@@ -41296,7 +41133,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B188" s="4"/>
       <c r="D188" t="str" cm="1">
         <f t="array" aca="1" ref="D188" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C188))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C188))=1), "C", "")</f>
         <v/>
@@ -41319,7 +41155,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B189" s="4"/>
       <c r="D189" t="str" cm="1">
         <f t="array" aca="1" ref="D189" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C189))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C189))=1), "C", "")</f>
         <v/>
@@ -41342,7 +41177,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B190" s="4"/>
       <c r="D190" t="str" cm="1">
         <f t="array" aca="1" ref="D190" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C190))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C190))=1), "C", "")</f>
         <v/>
@@ -41365,7 +41199,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B191" s="4"/>
       <c r="D191" t="str" cm="1">
         <f t="array" aca="1" ref="D191" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C191))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C191))=1), "C", "")</f>
         <v/>
@@ -41388,7 +41221,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B192" s="4"/>
       <c r="D192" t="str" cm="1">
         <f t="array" aca="1" ref="D192" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C192))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C192))=1), "C", "")</f>
         <v/>
@@ -41411,7 +41243,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B193" s="4"/>
       <c r="D193" t="str" cm="1">
         <f t="array" aca="1" ref="D193" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C193))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C193))=1), "C", "")</f>
         <v/>
@@ -41434,7 +41265,6 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B194" s="4"/>
       <c r="D194" t="str" cm="1">
         <f t="array" aca="1" ref="D194" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C194))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C194))=1), "C", "")</f>
         <v/>
@@ -41457,7 +41287,6 @@
         <f t="shared" ref="A195:A258" ca="1" si="4">IF(AND(C195&lt;&gt;"",D195&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D195),"_"),C195),"")</f>
         <v/>
       </c>
-      <c r="B195" s="4"/>
       <c r="D195" t="str" cm="1">
         <f t="array" aca="1" ref="D195" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C195))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C195))=1), "C", "")</f>
         <v/>
@@ -41480,7 +41309,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B196" s="4"/>
       <c r="D196" t="str" cm="1">
         <f t="array" aca="1" ref="D196" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C196))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C196))=1), "C", "")</f>
         <v/>
@@ -41503,7 +41331,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B197" s="4"/>
       <c r="D197" t="str" cm="1">
         <f t="array" aca="1" ref="D197" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C197))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C197))=1), "C", "")</f>
         <v/>
@@ -41526,7 +41353,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B198" s="4"/>
       <c r="D198" t="str" cm="1">
         <f t="array" aca="1" ref="D198" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C198))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C198))=1), "C", "")</f>
         <v/>
@@ -41549,7 +41375,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B199" s="4"/>
       <c r="D199" t="str" cm="1">
         <f t="array" aca="1" ref="D199" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C199))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C199))=1), "C", "")</f>
         <v/>
@@ -41572,7 +41397,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B200" s="4"/>
       <c r="D200" t="str" cm="1">
         <f t="array" aca="1" ref="D200" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C200))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C200))=1), "C", "")</f>
         <v/>
@@ -41595,7 +41419,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B201" s="4"/>
       <c r="D201" t="str" cm="1">
         <f t="array" aca="1" ref="D201" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C201))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C201))=1), "C", "")</f>
         <v/>
@@ -41618,7 +41441,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B202" s="4"/>
       <c r="D202" t="str" cm="1">
         <f t="array" aca="1" ref="D202" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C202))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C202))=1), "C", "")</f>
         <v/>
@@ -41641,7 +41463,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B203" s="4"/>
       <c r="D203" t="str" cm="1">
         <f t="array" aca="1" ref="D203" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C203))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C203))=1), "C", "")</f>
         <v/>
@@ -41664,7 +41485,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B204" s="4"/>
       <c r="D204" t="str" cm="1">
         <f t="array" aca="1" ref="D204" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C204))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C204))=1), "C", "")</f>
         <v/>
@@ -41687,7 +41507,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B205" s="4"/>
       <c r="D205" t="str" cm="1">
         <f t="array" aca="1" ref="D205" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C205))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C205))=1), "C", "")</f>
         <v/>
@@ -41710,7 +41529,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B206" s="4"/>
       <c r="D206" t="str" cm="1">
         <f t="array" aca="1" ref="D206" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C206))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C206))=1), "C", "")</f>
         <v/>
@@ -41733,7 +41551,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B207" s="4"/>
       <c r="D207" t="str" cm="1">
         <f t="array" aca="1" ref="D207" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C207))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C207))=1), "C", "")</f>
         <v/>
@@ -41756,7 +41573,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B208" s="4"/>
       <c r="D208" t="str" cm="1">
         <f t="array" aca="1" ref="D208" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C208))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C208))=1), "C", "")</f>
         <v/>
@@ -41779,7 +41595,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B209" s="4"/>
       <c r="D209" t="str" cm="1">
         <f t="array" aca="1" ref="D209" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C209))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C209))=1), "C", "")</f>
         <v/>
@@ -41802,7 +41617,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B210" s="4"/>
       <c r="D210" t="str" cm="1">
         <f t="array" aca="1" ref="D210" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C210))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C210))=1), "C", "")</f>
         <v/>
@@ -41825,7 +41639,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B211" s="4"/>
       <c r="D211" t="str" cm="1">
         <f t="array" aca="1" ref="D211" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C211))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C211))=1), "C", "")</f>
         <v/>
@@ -41848,7 +41661,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B212" s="4"/>
       <c r="D212" t="str" cm="1">
         <f t="array" aca="1" ref="D212" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C212))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C212))=1), "C", "")</f>
         <v/>
@@ -41871,7 +41683,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B213" s="4"/>
       <c r="D213" t="str" cm="1">
         <f t="array" aca="1" ref="D213" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C213))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C213))=1), "C", "")</f>
         <v/>
@@ -41894,7 +41705,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B214" s="4"/>
       <c r="D214" t="str" cm="1">
         <f t="array" aca="1" ref="D214" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C214))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C214))=1), "C", "")</f>
         <v/>
@@ -41917,7 +41727,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B215" s="4"/>
       <c r="D215" t="str" cm="1">
         <f t="array" aca="1" ref="D215" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C215))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C215))=1), "C", "")</f>
         <v/>
@@ -41940,7 +41749,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B216" s="4"/>
       <c r="D216" t="str" cm="1">
         <f t="array" aca="1" ref="D216" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C216))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C216))=1), "C", "")</f>
         <v/>
@@ -41963,7 +41771,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B217" s="4"/>
       <c r="D217" t="str" cm="1">
         <f t="array" aca="1" ref="D217" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C217))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C217))=1), "C", "")</f>
         <v/>
@@ -41986,7 +41793,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B218" s="4"/>
       <c r="D218" t="str" cm="1">
         <f t="array" aca="1" ref="D218" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C218))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C218))=1), "C", "")</f>
         <v/>
@@ -42009,7 +41815,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B219" s="4"/>
       <c r="D219" t="str" cm="1">
         <f t="array" aca="1" ref="D219" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C219))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C219))=1), "C", "")</f>
         <v/>
@@ -42032,7 +41837,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B220" s="4"/>
       <c r="D220" t="str" cm="1">
         <f t="array" aca="1" ref="D220" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C220))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C220))=1), "C", "")</f>
         <v/>
@@ -42055,7 +41859,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B221" s="4"/>
       <c r="D221" t="str" cm="1">
         <f t="array" aca="1" ref="D221" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C221))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C221))=1), "C", "")</f>
         <v/>
@@ -42078,7 +41881,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B222" s="4"/>
       <c r="D222" t="str" cm="1">
         <f t="array" aca="1" ref="D222" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C222))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C222))=1), "C", "")</f>
         <v/>
@@ -42101,7 +41903,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B223" s="4"/>
       <c r="D223" t="str" cm="1">
         <f t="array" aca="1" ref="D223" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C223))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C223))=1), "C", "")</f>
         <v/>
@@ -42124,7 +41925,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B224" s="4"/>
       <c r="D224" t="str" cm="1">
         <f t="array" aca="1" ref="D224" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C224))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C224))=1), "C", "")</f>
         <v/>
@@ -42147,7 +41947,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B225" s="4"/>
       <c r="D225" t="str" cm="1">
         <f t="array" aca="1" ref="D225" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C225))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C225))=1), "C", "")</f>
         <v/>
@@ -42170,7 +41969,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B226" s="4"/>
       <c r="D226" t="str" cm="1">
         <f t="array" aca="1" ref="D226" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C226))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C226))=1), "C", "")</f>
         <v/>
@@ -42193,7 +41991,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B227" s="4"/>
       <c r="D227" t="str" cm="1">
         <f t="array" aca="1" ref="D227" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C227))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C227))=1), "C", "")</f>
         <v/>
@@ -42216,7 +42013,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B228" s="4"/>
       <c r="D228" t="str" cm="1">
         <f t="array" aca="1" ref="D228" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C228))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C228))=1), "C", "")</f>
         <v/>
@@ -42239,7 +42035,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B229" s="4"/>
       <c r="D229" t="str" cm="1">
         <f t="array" aca="1" ref="D229" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C229))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C229))=1), "C", "")</f>
         <v/>
@@ -42262,7 +42057,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B230" s="4"/>
       <c r="D230" t="str" cm="1">
         <f t="array" aca="1" ref="D230" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C230))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C230))=1), "C", "")</f>
         <v/>
@@ -42285,7 +42079,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B231" s="4"/>
       <c r="D231" t="str" cm="1">
         <f t="array" aca="1" ref="D231" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C231))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C231))=1), "C", "")</f>
         <v/>
@@ -42308,7 +42101,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B232" s="4"/>
       <c r="D232" t="str" cm="1">
         <f t="array" aca="1" ref="D232" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C232))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C232))=1), "C", "")</f>
         <v/>
@@ -42331,7 +42123,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B233" s="4"/>
       <c r="D233" t="str" cm="1">
         <f t="array" aca="1" ref="D233" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C233))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C233))=1), "C", "")</f>
         <v/>
@@ -42354,7 +42145,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B234" s="4"/>
       <c r="D234" t="str" cm="1">
         <f t="array" aca="1" ref="D234" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C234))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C234))=1), "C", "")</f>
         <v/>
@@ -42377,7 +42167,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B235" s="4"/>
       <c r="D235" t="str" cm="1">
         <f t="array" aca="1" ref="D235" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C235))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C235))=1), "C", "")</f>
         <v/>
@@ -42400,7 +42189,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B236" s="4"/>
       <c r="D236" t="str" cm="1">
         <f t="array" aca="1" ref="D236" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C236))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C236))=1), "C", "")</f>
         <v/>
@@ -42423,7 +42211,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B237" s="4"/>
       <c r="D237" t="str" cm="1">
         <f t="array" aca="1" ref="D237" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C237))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C237))=1), "C", "")</f>
         <v/>
@@ -42446,7 +42233,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B238" s="4"/>
       <c r="D238" t="str" cm="1">
         <f t="array" aca="1" ref="D238" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C238))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C238))=1), "C", "")</f>
         <v/>
@@ -42469,7 +42255,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B239" s="4"/>
       <c r="D239" t="str" cm="1">
         <f t="array" aca="1" ref="D239" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C239))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C239))=1), "C", "")</f>
         <v/>
@@ -42492,7 +42277,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B240" s="4"/>
       <c r="D240" t="str" cm="1">
         <f t="array" aca="1" ref="D240" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C240))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C240))=1), "C", "")</f>
         <v/>
@@ -42515,7 +42299,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B241" s="4"/>
       <c r="D241" t="str" cm="1">
         <f t="array" aca="1" ref="D241" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C241))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C241))=1), "C", "")</f>
         <v/>
@@ -42538,7 +42321,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B242" s="4"/>
       <c r="D242" t="str" cm="1">
         <f t="array" aca="1" ref="D242" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C242))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C242))=1), "C", "")</f>
         <v/>
@@ -42561,7 +42343,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B243" s="4"/>
       <c r="D243" t="str" cm="1">
         <f t="array" aca="1" ref="D243" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C243))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C243))=1), "C", "")</f>
         <v/>
@@ -42584,7 +42365,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B244" s="4"/>
       <c r="D244" t="str" cm="1">
         <f t="array" aca="1" ref="D244" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C244))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C244))=1), "C", "")</f>
         <v/>
@@ -42607,7 +42387,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B245" s="4"/>
       <c r="D245" t="str" cm="1">
         <f t="array" aca="1" ref="D245" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C245))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C245))=1), "C", "")</f>
         <v/>
@@ -42630,7 +42409,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B246" s="4"/>
       <c r="D246" t="str" cm="1">
         <f t="array" aca="1" ref="D246" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C246))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C246))=1), "C", "")</f>
         <v/>
@@ -42653,7 +42431,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B247" s="4"/>
       <c r="D247" t="str" cm="1">
         <f t="array" aca="1" ref="D247" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C247))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C247))=1), "C", "")</f>
         <v/>
@@ -42676,7 +42453,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B248" s="4"/>
       <c r="D248" t="str" cm="1">
         <f t="array" aca="1" ref="D248" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C248))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C248))=1), "C", "")</f>
         <v/>
@@ -42699,7 +42475,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B249" s="4"/>
       <c r="D249" t="str" cm="1">
         <f t="array" aca="1" ref="D249" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C249))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C249))=1), "C", "")</f>
         <v/>
@@ -42722,7 +42497,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B250" s="4"/>
       <c r="D250" t="str" cm="1">
         <f t="array" aca="1" ref="D250" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C250))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C250))=1), "C", "")</f>
         <v/>
@@ -42745,7 +42519,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B251" s="4"/>
       <c r="D251" t="str" cm="1">
         <f t="array" aca="1" ref="D251" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C251))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C251))=1), "C", "")</f>
         <v/>
@@ -42768,7 +42541,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B252" s="4"/>
       <c r="D252" t="str" cm="1">
         <f t="array" aca="1" ref="D252" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C252))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C252))=1), "C", "")</f>
         <v/>
@@ -42791,7 +42563,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B253" s="4"/>
       <c r="D253" t="str" cm="1">
         <f t="array" aca="1" ref="D253" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C253))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C253))=1), "C", "")</f>
         <v/>
@@ -42814,7 +42585,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B254" s="4"/>
       <c r="D254" t="str" cm="1">
         <f t="array" aca="1" ref="D254" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C254))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C254))=1), "C", "")</f>
         <v/>
@@ -42837,7 +42607,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B255" s="4"/>
       <c r="D255" t="str" cm="1">
         <f t="array" aca="1" ref="D255" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C255))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C255))=1), "C", "")</f>
         <v/>
@@ -42860,7 +42629,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B256" s="4"/>
       <c r="D256" t="str" cm="1">
         <f t="array" aca="1" ref="D256" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C256))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C256))=1), "C", "")</f>
         <v/>
@@ -42883,7 +42651,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B257" s="4"/>
       <c r="D257" t="str" cm="1">
         <f t="array" aca="1" ref="D257" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C257))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C257))=1), "C", "")</f>
         <v/>
@@ -42906,7 +42673,6 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="B258" s="4"/>
       <c r="D258" t="str" cm="1">
         <f t="array" aca="1" ref="D258" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C258))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C258))=1), "C", "")</f>
         <v/>
@@ -42929,7 +42695,6 @@
         <f t="shared" ref="A259:A322" ca="1" si="8">IF(AND(C259&lt;&gt;"",D259&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D259),"_"),C259),"")</f>
         <v/>
       </c>
-      <c r="B259" s="4"/>
       <c r="D259" t="str" cm="1">
         <f t="array" aca="1" ref="D259" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C259))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C259))=1), "C", "")</f>
         <v/>
@@ -42952,7 +42717,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B260" s="4"/>
       <c r="D260" t="str" cm="1">
         <f t="array" aca="1" ref="D260" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C260))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C260))=1), "C", "")</f>
         <v/>
@@ -42975,7 +42739,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B261" s="4"/>
       <c r="D261" t="str" cm="1">
         <f t="array" aca="1" ref="D261" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C261))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C261))=1), "C", "")</f>
         <v/>
@@ -42998,7 +42761,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B262" s="4"/>
       <c r="D262" t="str" cm="1">
         <f t="array" aca="1" ref="D262" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C262))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C262))=1), "C", "")</f>
         <v/>
@@ -43021,7 +42783,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B263" s="4"/>
       <c r="D263" t="str" cm="1">
         <f t="array" aca="1" ref="D263" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C263))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C263))=1), "C", "")</f>
         <v/>
@@ -43044,7 +42805,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B264" s="4"/>
       <c r="D264" t="str" cm="1">
         <f t="array" aca="1" ref="D264" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C264))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C264))=1), "C", "")</f>
         <v/>
@@ -43067,7 +42827,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B265" s="4"/>
       <c r="D265" t="str" cm="1">
         <f t="array" aca="1" ref="D265" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C265))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C265))=1), "C", "")</f>
         <v/>
@@ -43090,7 +42849,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B266" s="4"/>
       <c r="D266" t="str" cm="1">
         <f t="array" aca="1" ref="D266" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C266))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C266))=1), "C", "")</f>
         <v/>
@@ -43113,7 +42871,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B267" s="4"/>
       <c r="D267" t="str" cm="1">
         <f t="array" aca="1" ref="D267" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C267))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C267))=1), "C", "")</f>
         <v/>
@@ -43136,7 +42893,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B268" s="4"/>
       <c r="D268" t="str" cm="1">
         <f t="array" aca="1" ref="D268" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C268))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C268))=1), "C", "")</f>
         <v/>
@@ -43159,7 +42915,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B269" s="4"/>
       <c r="D269" t="str" cm="1">
         <f t="array" aca="1" ref="D269" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C269))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C269))=1), "C", "")</f>
         <v/>
@@ -43182,7 +42937,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B270" s="4"/>
       <c r="D270" t="str" cm="1">
         <f t="array" aca="1" ref="D270" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C270))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C270))=1), "C", "")</f>
         <v/>
@@ -43205,7 +42959,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B271" s="4"/>
       <c r="D271" t="str" cm="1">
         <f t="array" aca="1" ref="D271" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C271))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C271))=1), "C", "")</f>
         <v/>
@@ -43228,7 +42981,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B272" s="4"/>
       <c r="D272" t="str" cm="1">
         <f t="array" aca="1" ref="D272" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C272))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C272))=1), "C", "")</f>
         <v/>
@@ -43251,7 +43003,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B273" s="4"/>
       <c r="D273" t="str" cm="1">
         <f t="array" aca="1" ref="D273" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C273))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C273))=1), "C", "")</f>
         <v/>
@@ -43274,7 +43025,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B274" s="4"/>
       <c r="D274" t="str" cm="1">
         <f t="array" aca="1" ref="D274" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C274))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C274))=1), "C", "")</f>
         <v/>
@@ -43297,7 +43047,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B275" s="4"/>
       <c r="D275" t="str" cm="1">
         <f t="array" aca="1" ref="D275" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C275))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C275))=1), "C", "")</f>
         <v/>
@@ -43320,7 +43069,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B276" s="4"/>
       <c r="D276" t="str" cm="1">
         <f t="array" aca="1" ref="D276" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C276))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C276))=1), "C", "")</f>
         <v/>
@@ -43343,7 +43091,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B277" s="4"/>
       <c r="D277" t="str" cm="1">
         <f t="array" aca="1" ref="D277" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C277))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C277))=1), "C", "")</f>
         <v/>
@@ -43366,7 +43113,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B278" s="4"/>
       <c r="D278" t="str" cm="1">
         <f t="array" aca="1" ref="D278" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C278))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C278))=1), "C", "")</f>
         <v/>
@@ -43389,7 +43135,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B279" s="4"/>
       <c r="D279" t="str" cm="1">
         <f t="array" aca="1" ref="D279" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C279))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C279))=1), "C", "")</f>
         <v/>
@@ -43412,7 +43157,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B280" s="4"/>
       <c r="D280" t="str" cm="1">
         <f t="array" aca="1" ref="D280" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C280))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C280))=1), "C", "")</f>
         <v/>
@@ -43435,7 +43179,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B281" s="4"/>
       <c r="D281" t="str" cm="1">
         <f t="array" aca="1" ref="D281" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C281))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C281))=1), "C", "")</f>
         <v/>
@@ -43458,7 +43201,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B282" s="4"/>
       <c r="D282" t="str" cm="1">
         <f t="array" aca="1" ref="D282" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C282))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C282))=1), "C", "")</f>
         <v/>
@@ -43481,7 +43223,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B283" s="4"/>
       <c r="D283" t="str" cm="1">
         <f t="array" aca="1" ref="D283" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C283))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C283))=1), "C", "")</f>
         <v/>
@@ -43504,7 +43245,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B284" s="4"/>
       <c r="D284" t="str" cm="1">
         <f t="array" aca="1" ref="D284" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C284))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C284))=1), "C", "")</f>
         <v/>
@@ -43527,7 +43267,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B285" s="4"/>
       <c r="D285" t="str" cm="1">
         <f t="array" aca="1" ref="D285" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C285))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C285))=1), "C", "")</f>
         <v/>
@@ -43550,7 +43289,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B286" s="4"/>
       <c r="D286" t="str" cm="1">
         <f t="array" aca="1" ref="D286" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C286))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C286))=1), "C", "")</f>
         <v/>
@@ -43573,7 +43311,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B287" s="4"/>
       <c r="D287" t="str" cm="1">
         <f t="array" aca="1" ref="D287" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C287))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C287))=1), "C", "")</f>
         <v/>
@@ -43596,7 +43333,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B288" s="4"/>
       <c r="D288" t="str" cm="1">
         <f t="array" aca="1" ref="D288" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C288))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C288))=1), "C", "")</f>
         <v/>
@@ -43619,7 +43355,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B289" s="4"/>
       <c r="D289" t="str" cm="1">
         <f t="array" aca="1" ref="D289" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C289))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C289))=1), "C", "")</f>
         <v/>
@@ -43642,7 +43377,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B290" s="4"/>
       <c r="D290" t="str" cm="1">
         <f t="array" aca="1" ref="D290" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C290))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C290))=1), "C", "")</f>
         <v/>
@@ -43665,7 +43399,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B291" s="4"/>
       <c r="D291" t="str" cm="1">
         <f t="array" aca="1" ref="D291" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C291))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C291))=1), "C", "")</f>
         <v/>
@@ -43688,7 +43421,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B292" s="4"/>
       <c r="D292" t="str" cm="1">
         <f t="array" aca="1" ref="D292" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C292))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C292))=1), "C", "")</f>
         <v/>
@@ -43711,7 +43443,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B293" s="4"/>
       <c r="D293" t="str" cm="1">
         <f t="array" aca="1" ref="D293" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C293))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C293))=1), "C", "")</f>
         <v/>
@@ -43734,7 +43465,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B294" s="4"/>
       <c r="D294" t="str" cm="1">
         <f t="array" aca="1" ref="D294" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C294))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C294))=1), "C", "")</f>
         <v/>
@@ -43757,7 +43487,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B295" s="4"/>
       <c r="D295" t="str" cm="1">
         <f t="array" aca="1" ref="D295" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C295))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C295))=1), "C", "")</f>
         <v/>
@@ -43780,7 +43509,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B296" s="4"/>
       <c r="D296" t="str" cm="1">
         <f t="array" aca="1" ref="D296" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C296))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C296))=1), "C", "")</f>
         <v/>
@@ -43803,7 +43531,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B297" s="4"/>
       <c r="D297" t="str" cm="1">
         <f t="array" aca="1" ref="D297" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C297))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C297))=1), "C", "")</f>
         <v/>
@@ -43826,7 +43553,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B298" s="4"/>
       <c r="D298" t="str" cm="1">
         <f t="array" aca="1" ref="D298" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C298))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C298))=1), "C", "")</f>
         <v/>
@@ -43849,7 +43575,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B299" s="4"/>
       <c r="D299" t="str" cm="1">
         <f t="array" aca="1" ref="D299" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C299))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C299))=1), "C", "")</f>
         <v/>
@@ -43872,7 +43597,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B300" s="4"/>
       <c r="D300" t="str" cm="1">
         <f t="array" aca="1" ref="D300" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C300))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C300))=1), "C", "")</f>
         <v/>
@@ -43895,7 +43619,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B301" s="4"/>
       <c r="D301" t="str" cm="1">
         <f t="array" aca="1" ref="D301" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C301))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C301))=1), "C", "")</f>
         <v/>
@@ -43918,7 +43641,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B302" s="4"/>
       <c r="D302" t="str" cm="1">
         <f t="array" aca="1" ref="D302" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C302))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C302))=1), "C", "")</f>
         <v/>
@@ -43941,7 +43663,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B303" s="4"/>
       <c r="D303" t="str" cm="1">
         <f t="array" aca="1" ref="D303" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C303))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C303))=1), "C", "")</f>
         <v/>
@@ -43964,7 +43685,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B304" s="4"/>
       <c r="D304" t="str" cm="1">
         <f t="array" aca="1" ref="D304" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C304))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C304))=1), "C", "")</f>
         <v/>
@@ -43987,7 +43707,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B305" s="4"/>
       <c r="D305" t="str" cm="1">
         <f t="array" aca="1" ref="D305" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C305))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C305))=1), "C", "")</f>
         <v/>
@@ -44010,7 +43729,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B306" s="4"/>
       <c r="D306" t="str" cm="1">
         <f t="array" aca="1" ref="D306" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C306))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C306))=1), "C", "")</f>
         <v/>
@@ -44033,7 +43751,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B307" s="4"/>
       <c r="D307" t="str" cm="1">
         <f t="array" aca="1" ref="D307" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C307))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C307))=1), "C", "")</f>
         <v/>
@@ -44056,7 +43773,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B308" s="4"/>
       <c r="D308" t="str" cm="1">
         <f t="array" aca="1" ref="D308" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C308))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C308))=1), "C", "")</f>
         <v/>
@@ -44079,7 +43795,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B309" s="4"/>
       <c r="D309" t="str" cm="1">
         <f t="array" aca="1" ref="D309" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C309))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C309))=1), "C", "")</f>
         <v/>
@@ -44102,7 +43817,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B310" s="4"/>
       <c r="D310" t="str" cm="1">
         <f t="array" aca="1" ref="D310" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C310))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C310))=1), "C", "")</f>
         <v/>
@@ -44125,7 +43839,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B311" s="4"/>
       <c r="D311" t="str" cm="1">
         <f t="array" aca="1" ref="D311" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C311))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C311))=1), "C", "")</f>
         <v/>
@@ -44148,7 +43861,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B312" s="4"/>
       <c r="D312" t="str" cm="1">
         <f t="array" aca="1" ref="D312" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C312))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C312))=1), "C", "")</f>
         <v/>
@@ -44171,7 +43883,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B313" s="4"/>
       <c r="D313" t="str" cm="1">
         <f t="array" aca="1" ref="D313" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C313))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C313))=1), "C", "")</f>
         <v/>
@@ -44194,7 +43905,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B314" s="4"/>
       <c r="D314" t="str" cm="1">
         <f t="array" aca="1" ref="D314" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C314))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C314))=1), "C", "")</f>
         <v/>
@@ -44217,7 +43927,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B315" s="4"/>
       <c r="D315" t="str" cm="1">
         <f t="array" aca="1" ref="D315" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C315))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C315))=1), "C", "")</f>
         <v/>
@@ -44240,7 +43949,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B316" s="4"/>
       <c r="D316" t="str" cm="1">
         <f t="array" aca="1" ref="D316" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C316))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C316))=1), "C", "")</f>
         <v/>
@@ -44263,7 +43971,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B317" s="4"/>
       <c r="D317" t="str" cm="1">
         <f t="array" aca="1" ref="D317" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C317))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C317))=1), "C", "")</f>
         <v/>
@@ -44286,7 +43993,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B318" s="4"/>
       <c r="D318" t="str" cm="1">
         <f t="array" aca="1" ref="D318" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C318))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C318))=1), "C", "")</f>
         <v/>
@@ -44309,7 +44015,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B319" s="4"/>
       <c r="D319" t="str" cm="1">
         <f t="array" aca="1" ref="D319" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C319))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C319))=1), "C", "")</f>
         <v/>
@@ -44332,7 +44037,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B320" s="4"/>
       <c r="D320" t="str" cm="1">
         <f t="array" aca="1" ref="D320" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C320))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C320))=1), "C", "")</f>
         <v/>
@@ -44355,7 +44059,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B321" s="4"/>
       <c r="D321" t="str" cm="1">
         <f t="array" aca="1" ref="D321" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C321))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C321))=1), "C", "")</f>
         <v/>
@@ -44378,7 +44081,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="B322" s="4"/>
       <c r="D322" t="str" cm="1">
         <f t="array" aca="1" ref="D322" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C322))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C322))=1), "C", "")</f>
         <v/>
@@ -44401,7 +44103,6 @@
         <f t="shared" ref="A323:A386" ca="1" si="12">IF(AND(C323&lt;&gt;"",D323&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D323),"_"),C323),"")</f>
         <v/>
       </c>
-      <c r="B323" s="4"/>
       <c r="D323" t="str" cm="1">
         <f t="array" aca="1" ref="D323" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C323))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C323))=1), "C", "")</f>
         <v/>
@@ -44424,7 +44125,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B324" s="4"/>
       <c r="D324" t="str" cm="1">
         <f t="array" aca="1" ref="D324" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C324))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C324))=1), "C", "")</f>
         <v/>
@@ -44447,7 +44147,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B325" s="4"/>
       <c r="D325" t="str" cm="1">
         <f t="array" aca="1" ref="D325" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C325))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C325))=1), "C", "")</f>
         <v/>
@@ -44470,7 +44169,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B326" s="4"/>
       <c r="D326" t="str" cm="1">
         <f t="array" aca="1" ref="D326" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C326))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C326))=1), "C", "")</f>
         <v/>
@@ -44493,7 +44191,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B327" s="4"/>
       <c r="D327" t="str" cm="1">
         <f t="array" aca="1" ref="D327" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C327))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C327))=1), "C", "")</f>
         <v/>
@@ -44516,7 +44213,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B328" s="4"/>
       <c r="D328" t="str" cm="1">
         <f t="array" aca="1" ref="D328" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C328))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C328))=1), "C", "")</f>
         <v/>
@@ -44539,7 +44235,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B329" s="4"/>
       <c r="D329" t="str" cm="1">
         <f t="array" aca="1" ref="D329" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C329))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C329))=1), "C", "")</f>
         <v/>
@@ -44562,7 +44257,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B330" s="4"/>
       <c r="D330" t="str" cm="1">
         <f t="array" aca="1" ref="D330" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C330))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C330))=1), "C", "")</f>
         <v/>
@@ -44585,7 +44279,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B331" s="4"/>
       <c r="D331" t="str" cm="1">
         <f t="array" aca="1" ref="D331" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C331))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C331))=1), "C", "")</f>
         <v/>
@@ -44608,7 +44301,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B332" s="4"/>
       <c r="D332" t="str" cm="1">
         <f t="array" aca="1" ref="D332" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C332))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C332))=1), "C", "")</f>
         <v/>
@@ -44631,7 +44323,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B333" s="4"/>
       <c r="D333" t="str" cm="1">
         <f t="array" aca="1" ref="D333" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C333))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C333))=1), "C", "")</f>
         <v/>
@@ -44654,7 +44345,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B334" s="4"/>
       <c r="D334" t="str" cm="1">
         <f t="array" aca="1" ref="D334" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C334))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C334))=1), "C", "")</f>
         <v/>
@@ -44677,7 +44367,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B335" s="4"/>
       <c r="D335" t="str" cm="1">
         <f t="array" aca="1" ref="D335" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C335))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C335))=1), "C", "")</f>
         <v/>
@@ -44700,7 +44389,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B336" s="4"/>
       <c r="D336" t="str" cm="1">
         <f t="array" aca="1" ref="D336" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C336))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C336))=1), "C", "")</f>
         <v/>
@@ -44723,7 +44411,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B337" s="4"/>
       <c r="D337" t="str" cm="1">
         <f t="array" aca="1" ref="D337" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C337))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C337))=1), "C", "")</f>
         <v/>
@@ -44746,7 +44433,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B338" s="4"/>
       <c r="D338" t="str" cm="1">
         <f t="array" aca="1" ref="D338" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C338))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C338))=1), "C", "")</f>
         <v/>
@@ -44769,7 +44455,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B339" s="4"/>
       <c r="D339" t="str" cm="1">
         <f t="array" aca="1" ref="D339" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C339))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C339))=1), "C", "")</f>
         <v/>
@@ -44792,7 +44477,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B340" s="4"/>
       <c r="D340" t="str" cm="1">
         <f t="array" aca="1" ref="D340" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C340))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C340))=1), "C", "")</f>
         <v/>
@@ -44815,7 +44499,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B341" s="4"/>
       <c r="D341" t="str" cm="1">
         <f t="array" aca="1" ref="D341" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C341))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C341))=1), "C", "")</f>
         <v/>
@@ -44838,7 +44521,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B342" s="4"/>
       <c r="D342" t="str" cm="1">
         <f t="array" aca="1" ref="D342" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C342))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C342))=1), "C", "")</f>
         <v/>
@@ -44861,7 +44543,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B343" s="4"/>
       <c r="D343" t="str" cm="1">
         <f t="array" aca="1" ref="D343" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C343))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C343))=1), "C", "")</f>
         <v/>
@@ -44884,7 +44565,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B344" s="4"/>
       <c r="D344" t="str" cm="1">
         <f t="array" aca="1" ref="D344" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C344))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C344))=1), "C", "")</f>
         <v/>
@@ -44907,7 +44587,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B345" s="4"/>
       <c r="D345" t="str" cm="1">
         <f t="array" aca="1" ref="D345" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C345))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C345))=1), "C", "")</f>
         <v/>
@@ -44930,7 +44609,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B346" s="4"/>
       <c r="D346" t="str" cm="1">
         <f t="array" aca="1" ref="D346" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C346))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C346))=1), "C", "")</f>
         <v/>
@@ -44953,7 +44631,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B347" s="4"/>
       <c r="D347" t="str" cm="1">
         <f t="array" aca="1" ref="D347" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C347))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C347))=1), "C", "")</f>
         <v/>
@@ -44976,7 +44653,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B348" s="4"/>
       <c r="D348" t="str" cm="1">
         <f t="array" aca="1" ref="D348" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C348))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C348))=1), "C", "")</f>
         <v/>
@@ -44999,7 +44675,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B349" s="4"/>
       <c r="D349" t="str" cm="1">
         <f t="array" aca="1" ref="D349" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C349))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C349))=1), "C", "")</f>
         <v/>
@@ -45022,7 +44697,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B350" s="4"/>
       <c r="D350" t="str" cm="1">
         <f t="array" aca="1" ref="D350" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C350))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C350))=1), "C", "")</f>
         <v/>
@@ -45045,7 +44719,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B351" s="4"/>
       <c r="D351" t="str" cm="1">
         <f t="array" aca="1" ref="D351" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C351))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C351))=1), "C", "")</f>
         <v/>
@@ -45068,7 +44741,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B352" s="4"/>
       <c r="D352" t="str" cm="1">
         <f t="array" aca="1" ref="D352" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C352))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C352))=1), "C", "")</f>
         <v/>
@@ -45091,7 +44763,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B353" s="4"/>
       <c r="D353" t="str" cm="1">
         <f t="array" aca="1" ref="D353" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C353))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C353))=1), "C", "")</f>
         <v/>
@@ -45114,7 +44785,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B354" s="4"/>
       <c r="D354" t="str" cm="1">
         <f t="array" aca="1" ref="D354" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C354))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C354))=1), "C", "")</f>
         <v/>
@@ -45137,7 +44807,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B355" s="4"/>
       <c r="D355" t="str" cm="1">
         <f t="array" aca="1" ref="D355" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C355))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C355))=1), "C", "")</f>
         <v/>
@@ -45160,7 +44829,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B356" s="4"/>
       <c r="D356" t="str" cm="1">
         <f t="array" aca="1" ref="D356" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C356))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C356))=1), "C", "")</f>
         <v/>
@@ -45183,7 +44851,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B357" s="4"/>
       <c r="D357" t="str" cm="1">
         <f t="array" aca="1" ref="D357" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C357))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C357))=1), "C", "")</f>
         <v/>
@@ -45206,7 +44873,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B358" s="4"/>
       <c r="D358" t="str" cm="1">
         <f t="array" aca="1" ref="D358" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C358))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C358))=1), "C", "")</f>
         <v/>
@@ -45229,7 +44895,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B359" s="4"/>
       <c r="D359" t="str" cm="1">
         <f t="array" aca="1" ref="D359" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C359))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C359))=1), "C", "")</f>
         <v/>
@@ -45252,7 +44917,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B360" s="4"/>
       <c r="D360" t="str" cm="1">
         <f t="array" aca="1" ref="D360" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C360))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C360))=1), "C", "")</f>
         <v/>
@@ -45275,7 +44939,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B361" s="4"/>
       <c r="D361" t="str" cm="1">
         <f t="array" aca="1" ref="D361" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C361))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C361))=1), "C", "")</f>
         <v/>
@@ -45298,7 +44961,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B362" s="4"/>
       <c r="D362" t="str" cm="1">
         <f t="array" aca="1" ref="D362" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C362))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C362))=1), "C", "")</f>
         <v/>
@@ -45321,7 +44983,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B363" s="4"/>
       <c r="D363" t="str" cm="1">
         <f t="array" aca="1" ref="D363" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C363))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C363))=1), "C", "")</f>
         <v/>
@@ -45344,7 +45005,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B364" s="4"/>
       <c r="D364" t="str" cm="1">
         <f t="array" aca="1" ref="D364" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C364))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C364))=1), "C", "")</f>
         <v/>
@@ -45367,7 +45027,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B365" s="4"/>
       <c r="D365" t="str" cm="1">
         <f t="array" aca="1" ref="D365" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C365))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C365))=1), "C", "")</f>
         <v/>
@@ -45390,7 +45049,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B366" s="4"/>
       <c r="D366" t="str" cm="1">
         <f t="array" aca="1" ref="D366" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C366))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C366))=1), "C", "")</f>
         <v/>
@@ -45413,7 +45071,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B367" s="4"/>
       <c r="D367" t="str" cm="1">
         <f t="array" aca="1" ref="D367" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C367))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C367))=1), "C", "")</f>
         <v/>
@@ -45436,7 +45093,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B368" s="4"/>
       <c r="D368" t="str" cm="1">
         <f t="array" aca="1" ref="D368" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C368))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C368))=1), "C", "")</f>
         <v/>
@@ -45459,7 +45115,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B369" s="4"/>
       <c r="D369" t="str" cm="1">
         <f t="array" aca="1" ref="D369" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C369))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C369))=1), "C", "")</f>
         <v/>
@@ -45482,7 +45137,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B370" s="4"/>
       <c r="D370" t="str" cm="1">
         <f t="array" aca="1" ref="D370" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C370))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C370))=1), "C", "")</f>
         <v/>
@@ -45505,7 +45159,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B371" s="4"/>
       <c r="D371" t="str" cm="1">
         <f t="array" aca="1" ref="D371" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C371))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C371))=1), "C", "")</f>
         <v/>
@@ -45528,7 +45181,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B372" s="4"/>
       <c r="D372" t="str" cm="1">
         <f t="array" aca="1" ref="D372" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C372))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C372))=1), "C", "")</f>
         <v/>
@@ -45551,7 +45203,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B373" s="4"/>
       <c r="D373" t="str" cm="1">
         <f t="array" aca="1" ref="D373" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C373))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C373))=1), "C", "")</f>
         <v/>
@@ -45574,7 +45225,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B374" s="4"/>
       <c r="D374" t="str" cm="1">
         <f t="array" aca="1" ref="D374" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C374))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C374))=1), "C", "")</f>
         <v/>
@@ -45597,7 +45247,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B375" s="4"/>
       <c r="D375" t="str" cm="1">
         <f t="array" aca="1" ref="D375" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C375))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C375))=1), "C", "")</f>
         <v/>
@@ -45620,7 +45269,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B376" s="4"/>
       <c r="D376" t="str" cm="1">
         <f t="array" aca="1" ref="D376" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C376))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C376))=1), "C", "")</f>
         <v/>
@@ -45643,7 +45291,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B377" s="4"/>
       <c r="D377" t="str" cm="1">
         <f t="array" aca="1" ref="D377" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C377))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C377))=1), "C", "")</f>
         <v/>
@@ -45666,7 +45313,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B378" s="4"/>
       <c r="D378" t="str" cm="1">
         <f t="array" aca="1" ref="D378" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C378))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C378))=1), "C", "")</f>
         <v/>
@@ -45689,7 +45335,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B379" s="4"/>
       <c r="D379" t="str" cm="1">
         <f t="array" aca="1" ref="D379" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C379))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C379))=1), "C", "")</f>
         <v/>
@@ -45712,7 +45357,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B380" s="4"/>
       <c r="D380" t="str" cm="1">
         <f t="array" aca="1" ref="D380" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C380))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C380))=1), "C", "")</f>
         <v/>
@@ -45735,7 +45379,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B381" s="4"/>
       <c r="D381" t="str" cm="1">
         <f t="array" aca="1" ref="D381" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C381))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C381))=1), "C", "")</f>
         <v/>
@@ -45758,7 +45401,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B382" s="4"/>
       <c r="D382" t="str" cm="1">
         <f t="array" aca="1" ref="D382" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C382))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C382))=1), "C", "")</f>
         <v/>
@@ -45781,7 +45423,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B383" s="4"/>
       <c r="D383" t="str" cm="1">
         <f t="array" aca="1" ref="D383" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C383))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C383))=1), "C", "")</f>
         <v/>
@@ -45804,7 +45445,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B384" s="4"/>
       <c r="D384" t="str" cm="1">
         <f t="array" aca="1" ref="D384" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C384))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C384))=1), "C", "")</f>
         <v/>
@@ -45827,7 +45467,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B385" s="4"/>
       <c r="D385" t="str" cm="1">
         <f t="array" aca="1" ref="D385" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C385))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C385))=1), "C", "")</f>
         <v/>
@@ -45850,7 +45489,6 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="B386" s="4"/>
       <c r="D386" t="str" cm="1">
         <f t="array" aca="1" ref="D386" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C386))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C386))=1), "C", "")</f>
         <v/>
@@ -45873,7 +45511,6 @@
         <f t="shared" ref="A387:A450" ca="1" si="16">IF(AND(C387&lt;&gt;"",D387&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D387),"_"),C387),"")</f>
         <v/>
       </c>
-      <c r="B387" s="4"/>
       <c r="D387" t="str" cm="1">
         <f t="array" aca="1" ref="D387" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C387))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C387))=1), "C", "")</f>
         <v/>
@@ -45896,7 +45533,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B388" s="4"/>
       <c r="D388" t="str" cm="1">
         <f t="array" aca="1" ref="D388" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C388))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C388))=1), "C", "")</f>
         <v/>
@@ -45919,7 +45555,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B389" s="4"/>
       <c r="D389" t="str" cm="1">
         <f t="array" aca="1" ref="D389" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C389))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C389))=1), "C", "")</f>
         <v/>
@@ -45942,7 +45577,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B390" s="4"/>
       <c r="D390" t="str" cm="1">
         <f t="array" aca="1" ref="D390" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C390))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C390))=1), "C", "")</f>
         <v/>
@@ -45965,7 +45599,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B391" s="4"/>
       <c r="D391" t="str" cm="1">
         <f t="array" aca="1" ref="D391" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C391))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C391))=1), "C", "")</f>
         <v/>
@@ -45988,7 +45621,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B392" s="4"/>
       <c r="D392" t="str" cm="1">
         <f t="array" aca="1" ref="D392" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C392))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C392))=1), "C", "")</f>
         <v/>
@@ -46011,7 +45643,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B393" s="4"/>
       <c r="D393" t="str" cm="1">
         <f t="array" aca="1" ref="D393" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C393))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C393))=1), "C", "")</f>
         <v/>
@@ -46034,7 +45665,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B394" s="4"/>
       <c r="D394" t="str" cm="1">
         <f t="array" aca="1" ref="D394" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C394))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C394))=1), "C", "")</f>
         <v/>
@@ -46057,7 +45687,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B395" s="4"/>
       <c r="D395" t="str" cm="1">
         <f t="array" aca="1" ref="D395" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C395))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C395))=1), "C", "")</f>
         <v/>
@@ -46080,7 +45709,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B396" s="4"/>
       <c r="D396" t="str" cm="1">
         <f t="array" aca="1" ref="D396" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C396))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C396))=1), "C", "")</f>
         <v/>
@@ -46103,7 +45731,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B397" s="4"/>
       <c r="D397" t="str" cm="1">
         <f t="array" aca="1" ref="D397" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C397))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C397))=1), "C", "")</f>
         <v/>
@@ -46126,7 +45753,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B398" s="4"/>
       <c r="D398" t="str" cm="1">
         <f t="array" aca="1" ref="D398" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C398))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C398))=1), "C", "")</f>
         <v/>
@@ -46149,7 +45775,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B399" s="4"/>
       <c r="D399" t="str" cm="1">
         <f t="array" aca="1" ref="D399" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C399))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C399))=1), "C", "")</f>
         <v/>
@@ -46172,7 +45797,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B400" s="4"/>
       <c r="D400" t="str" cm="1">
         <f t="array" aca="1" ref="D400" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C400))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C400))=1), "C", "")</f>
         <v/>
@@ -46195,7 +45819,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B401" s="4"/>
       <c r="D401" t="str" cm="1">
         <f t="array" aca="1" ref="D401" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C401))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C401))=1), "C", "")</f>
         <v/>
@@ -46218,7 +45841,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B402" s="4"/>
       <c r="D402" t="str" cm="1">
         <f t="array" aca="1" ref="D402" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C402))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C402))=1), "C", "")</f>
         <v/>
@@ -46241,7 +45863,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B403" s="4"/>
       <c r="D403" t="str" cm="1">
         <f t="array" aca="1" ref="D403" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C403))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C403))=1), "C", "")</f>
         <v/>
@@ -46264,7 +45885,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B404" s="4"/>
       <c r="D404" t="str" cm="1">
         <f t="array" aca="1" ref="D404" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C404))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C404))=1), "C", "")</f>
         <v/>
@@ -46287,7 +45907,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B405" s="4"/>
       <c r="D405" t="str" cm="1">
         <f t="array" aca="1" ref="D405" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C405))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C405))=1), "C", "")</f>
         <v/>
@@ -46310,7 +45929,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B406" s="4"/>
       <c r="D406" t="str" cm="1">
         <f t="array" aca="1" ref="D406" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C406))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C406))=1), "C", "")</f>
         <v/>
@@ -46333,7 +45951,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B407" s="4"/>
       <c r="D407" t="str" cm="1">
         <f t="array" aca="1" ref="D407" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C407))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C407))=1), "C", "")</f>
         <v/>
@@ -46356,7 +45973,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B408" s="4"/>
       <c r="D408" t="str" cm="1">
         <f t="array" aca="1" ref="D408" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C408))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C408))=1), "C", "")</f>
         <v/>
@@ -46379,7 +45995,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B409" s="4"/>
       <c r="D409" t="str" cm="1">
         <f t="array" aca="1" ref="D409" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C409))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C409))=1), "C", "")</f>
         <v/>
@@ -46402,7 +46017,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B410" s="4"/>
       <c r="D410" t="str" cm="1">
         <f t="array" aca="1" ref="D410" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C410))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C410))=1), "C", "")</f>
         <v/>
@@ -46425,7 +46039,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B411" s="4"/>
       <c r="D411" t="str" cm="1">
         <f t="array" aca="1" ref="D411" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C411))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C411))=1), "C", "")</f>
         <v/>
@@ -46448,7 +46061,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B412" s="4"/>
       <c r="D412" t="str" cm="1">
         <f t="array" aca="1" ref="D412" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C412))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C412))=1), "C", "")</f>
         <v/>
@@ -46471,7 +46083,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B413" s="4"/>
       <c r="D413" t="str" cm="1">
         <f t="array" aca="1" ref="D413" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C413))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C413))=1), "C", "")</f>
         <v/>
@@ -46494,7 +46105,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B414" s="4"/>
       <c r="D414" t="str" cm="1">
         <f t="array" aca="1" ref="D414" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C414))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C414))=1), "C", "")</f>
         <v/>
@@ -46517,7 +46127,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B415" s="4"/>
       <c r="D415" t="str" cm="1">
         <f t="array" aca="1" ref="D415" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C415))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C415))=1), "C", "")</f>
         <v/>
@@ -46540,7 +46149,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B416" s="4"/>
       <c r="D416" t="str" cm="1">
         <f t="array" aca="1" ref="D416" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C416))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C416))=1), "C", "")</f>
         <v/>
@@ -46563,7 +46171,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B417" s="4"/>
       <c r="D417" t="str" cm="1">
         <f t="array" aca="1" ref="D417" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C417))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C417))=1), "C", "")</f>
         <v/>
@@ -46586,7 +46193,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B418" s="4"/>
       <c r="D418" t="str" cm="1">
         <f t="array" aca="1" ref="D418" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C418))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C418))=1), "C", "")</f>
         <v/>
@@ -46609,7 +46215,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B419" s="4"/>
       <c r="D419" t="str" cm="1">
         <f t="array" aca="1" ref="D419" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C419))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C419))=1), "C", "")</f>
         <v/>
@@ -46632,7 +46237,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B420" s="4"/>
       <c r="D420" t="str" cm="1">
         <f t="array" aca="1" ref="D420" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C420))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C420))=1), "C", "")</f>
         <v/>
@@ -46655,7 +46259,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B421" s="4"/>
       <c r="D421" t="str" cm="1">
         <f t="array" aca="1" ref="D421" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C421))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C421))=1), "C", "")</f>
         <v/>
@@ -46678,7 +46281,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B422" s="4"/>
       <c r="D422" t="str" cm="1">
         <f t="array" aca="1" ref="D422" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C422))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C422))=1), "C", "")</f>
         <v/>
@@ -46701,7 +46303,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B423" s="4"/>
       <c r="D423" t="str" cm="1">
         <f t="array" aca="1" ref="D423" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C423))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C423))=1), "C", "")</f>
         <v/>
@@ -46724,7 +46325,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B424" s="4"/>
       <c r="D424" t="str" cm="1">
         <f t="array" aca="1" ref="D424" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C424))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C424))=1), "C", "")</f>
         <v/>
@@ -46747,7 +46347,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B425" s="4"/>
       <c r="D425" t="str" cm="1">
         <f t="array" aca="1" ref="D425" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C425))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C425))=1), "C", "")</f>
         <v/>
@@ -46770,7 +46369,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B426" s="4"/>
       <c r="D426" t="str" cm="1">
         <f t="array" aca="1" ref="D426" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C426))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C426))=1), "C", "")</f>
         <v/>
@@ -46793,7 +46391,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B427" s="4"/>
       <c r="D427" t="str" cm="1">
         <f t="array" aca="1" ref="D427" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C427))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C427))=1), "C", "")</f>
         <v/>
@@ -46816,7 +46413,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B428" s="4"/>
       <c r="D428" t="str" cm="1">
         <f t="array" aca="1" ref="D428" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C428))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C428))=1), "C", "")</f>
         <v/>
@@ -46839,7 +46435,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B429" s="4"/>
       <c r="D429" t="str" cm="1">
         <f t="array" aca="1" ref="D429" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C429))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C429))=1), "C", "")</f>
         <v/>
@@ -46862,7 +46457,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B430" s="4"/>
       <c r="D430" t="str" cm="1">
         <f t="array" aca="1" ref="D430" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C430))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C430))=1), "C", "")</f>
         <v/>
@@ -46885,7 +46479,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B431" s="4"/>
       <c r="D431" t="str" cm="1">
         <f t="array" aca="1" ref="D431" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C431))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C431))=1), "C", "")</f>
         <v/>
@@ -46908,7 +46501,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B432" s="4"/>
       <c r="D432" t="str" cm="1">
         <f t="array" aca="1" ref="D432" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C432))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C432))=1), "C", "")</f>
         <v/>
@@ -46931,7 +46523,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B433" s="4"/>
       <c r="D433" t="str" cm="1">
         <f t="array" aca="1" ref="D433" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C433))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C433))=1), "C", "")</f>
         <v/>
@@ -46954,7 +46545,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B434" s="4"/>
       <c r="D434" t="str" cm="1">
         <f t="array" aca="1" ref="D434" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C434))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C434))=1), "C", "")</f>
         <v/>
@@ -46977,7 +46567,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B435" s="4"/>
       <c r="D435" t="str" cm="1">
         <f t="array" aca="1" ref="D435" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C435))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C435))=1), "C", "")</f>
         <v/>
@@ -47000,7 +46589,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B436" s="4"/>
       <c r="D436" t="str" cm="1">
         <f t="array" aca="1" ref="D436" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C436))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C436))=1), "C", "")</f>
         <v/>
@@ -47023,7 +46611,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B437" s="4"/>
       <c r="D437" t="str" cm="1">
         <f t="array" aca="1" ref="D437" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C437))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C437))=1), "C", "")</f>
         <v/>
@@ -47046,7 +46633,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B438" s="4"/>
       <c r="D438" t="str" cm="1">
         <f t="array" aca="1" ref="D438" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C438))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C438))=1), "C", "")</f>
         <v/>
@@ -47069,7 +46655,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B439" s="4"/>
       <c r="D439" t="str" cm="1">
         <f t="array" aca="1" ref="D439" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C439))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C439))=1), "C", "")</f>
         <v/>
@@ -47092,7 +46677,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B440" s="4"/>
       <c r="D440" t="str" cm="1">
         <f t="array" aca="1" ref="D440" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C440))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C440))=1), "C", "")</f>
         <v/>
@@ -47115,7 +46699,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B441" s="4"/>
       <c r="D441" t="str" cm="1">
         <f t="array" aca="1" ref="D441" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C441))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C441))=1), "C", "")</f>
         <v/>
@@ -47138,7 +46721,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B442" s="4"/>
       <c r="D442" t="str" cm="1">
         <f t="array" aca="1" ref="D442" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C442))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C442))=1), "C", "")</f>
         <v/>
@@ -47161,7 +46743,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B443" s="4"/>
       <c r="D443" t="str" cm="1">
         <f t="array" aca="1" ref="D443" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C443))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C443))=1), "C", "")</f>
         <v/>
@@ -47184,7 +46765,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B444" s="4"/>
       <c r="D444" t="str" cm="1">
         <f t="array" aca="1" ref="D444" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C444))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C444))=1), "C", "")</f>
         <v/>
@@ -47207,7 +46787,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B445" s="4"/>
       <c r="D445" t="str" cm="1">
         <f t="array" aca="1" ref="D445" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C445))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C445))=1), "C", "")</f>
         <v/>
@@ -47230,7 +46809,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B446" s="4"/>
       <c r="D446" t="str" cm="1">
         <f t="array" aca="1" ref="D446" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C446))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C446))=1), "C", "")</f>
         <v/>
@@ -47253,7 +46831,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B447" s="4"/>
       <c r="D447" t="str" cm="1">
         <f t="array" aca="1" ref="D447" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C447))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C447))=1), "C", "")</f>
         <v/>
@@ -47276,7 +46853,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B448" s="4"/>
       <c r="D448" t="str" cm="1">
         <f t="array" aca="1" ref="D448" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C448))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C448))=1), "C", "")</f>
         <v/>
@@ -47299,7 +46875,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B449" s="4"/>
       <c r="D449" t="str" cm="1">
         <f t="array" aca="1" ref="D449" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C449))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C449))=1), "C", "")</f>
         <v/>
@@ -47322,7 +46897,6 @@
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="B450" s="4"/>
       <c r="D450" t="str" cm="1">
         <f t="array" aca="1" ref="D450" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C450))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C450))=1), "C", "")</f>
         <v/>
@@ -47345,7 +46919,6 @@
         <f t="shared" ref="A451:A514" ca="1" si="20">IF(AND(C451&lt;&gt;"",D451&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D451),"_"),C451),"")</f>
         <v/>
       </c>
-      <c r="B451" s="4"/>
       <c r="D451" t="str" cm="1">
         <f t="array" aca="1" ref="D451" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C451))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C451))=1), "C", "")</f>
         <v/>
@@ -47368,7 +46941,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B452" s="4"/>
       <c r="D452" t="str" cm="1">
         <f t="array" aca="1" ref="D452" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C452))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C452))=1), "C", "")</f>
         <v/>
@@ -47391,7 +46963,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B453" s="4"/>
       <c r="D453" t="str" cm="1">
         <f t="array" aca="1" ref="D453" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C453))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C453))=1), "C", "")</f>
         <v/>
@@ -47414,7 +46985,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B454" s="4"/>
       <c r="D454" t="str" cm="1">
         <f t="array" aca="1" ref="D454" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C454))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C454))=1), "C", "")</f>
         <v/>
@@ -47437,7 +47007,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B455" s="4"/>
       <c r="D455" t="str" cm="1">
         <f t="array" aca="1" ref="D455" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C455))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C455))=1), "C", "")</f>
         <v/>
@@ -47460,7 +47029,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B456" s="4"/>
       <c r="D456" t="str" cm="1">
         <f t="array" aca="1" ref="D456" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C456))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C456))=1), "C", "")</f>
         <v/>
@@ -47483,7 +47051,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B457" s="4"/>
       <c r="D457" t="str" cm="1">
         <f t="array" aca="1" ref="D457" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C457))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C457))=1), "C", "")</f>
         <v/>
@@ -47506,7 +47073,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B458" s="4"/>
       <c r="D458" t="str" cm="1">
         <f t="array" aca="1" ref="D458" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C458))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C458))=1), "C", "")</f>
         <v/>
@@ -47529,7 +47095,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B459" s="4"/>
       <c r="D459" t="str" cm="1">
         <f t="array" aca="1" ref="D459" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C459))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C459))=1), "C", "")</f>
         <v/>
@@ -47552,7 +47117,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B460" s="4"/>
       <c r="D460" t="str" cm="1">
         <f t="array" aca="1" ref="D460" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C460))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C460))=1), "C", "")</f>
         <v/>
@@ -47575,7 +47139,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B461" s="4"/>
       <c r="D461" t="str" cm="1">
         <f t="array" aca="1" ref="D461" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C461))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C461))=1), "C", "")</f>
         <v/>
@@ -47598,7 +47161,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B462" s="4"/>
       <c r="D462" t="str" cm="1">
         <f t="array" aca="1" ref="D462" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C462))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C462))=1), "C", "")</f>
         <v/>
@@ -47621,7 +47183,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B463" s="4"/>
       <c r="D463" t="str" cm="1">
         <f t="array" aca="1" ref="D463" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C463))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C463))=1), "C", "")</f>
         <v/>
@@ -47644,7 +47205,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B464" s="4"/>
       <c r="D464" t="str" cm="1">
         <f t="array" aca="1" ref="D464" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C464))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C464))=1), "C", "")</f>
         <v/>
@@ -47667,7 +47227,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B465" s="4"/>
       <c r="D465" t="str" cm="1">
         <f t="array" aca="1" ref="D465" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C465))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C465))=1), "C", "")</f>
         <v/>
@@ -47690,7 +47249,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B466" s="4"/>
       <c r="D466" t="str" cm="1">
         <f t="array" aca="1" ref="D466" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C466))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C466))=1), "C", "")</f>
         <v/>
@@ -47713,7 +47271,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B467" s="4"/>
       <c r="D467" t="str" cm="1">
         <f t="array" aca="1" ref="D467" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C467))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C467))=1), "C", "")</f>
         <v/>
@@ -47736,7 +47293,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B468" s="4"/>
       <c r="D468" t="str" cm="1">
         <f t="array" aca="1" ref="D468" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C468))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C468))=1), "C", "")</f>
         <v/>
@@ -47759,7 +47315,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B469" s="4"/>
       <c r="D469" t="str" cm="1">
         <f t="array" aca="1" ref="D469" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C469))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C469))=1), "C", "")</f>
         <v/>
@@ -47782,7 +47337,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B470" s="4"/>
       <c r="D470" t="str" cm="1">
         <f t="array" aca="1" ref="D470" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C470))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C470))=1), "C", "")</f>
         <v/>
@@ -47805,7 +47359,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B471" s="4"/>
       <c r="D471" t="str" cm="1">
         <f t="array" aca="1" ref="D471" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C471))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C471))=1), "C", "")</f>
         <v/>
@@ -47828,7 +47381,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B472" s="4"/>
       <c r="D472" t="str" cm="1">
         <f t="array" aca="1" ref="D472" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C472))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C472))=1), "C", "")</f>
         <v/>
@@ -47851,7 +47403,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B473" s="4"/>
       <c r="D473" t="str" cm="1">
         <f t="array" aca="1" ref="D473" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C473))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C473))=1), "C", "")</f>
         <v/>
@@ -47874,7 +47425,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B474" s="4"/>
       <c r="D474" t="str" cm="1">
         <f t="array" aca="1" ref="D474" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C474))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C474))=1), "C", "")</f>
         <v/>
@@ -47897,7 +47447,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B475" s="4"/>
       <c r="D475" t="str" cm="1">
         <f t="array" aca="1" ref="D475" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C475))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C475))=1), "C", "")</f>
         <v/>
@@ -47920,7 +47469,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B476" s="4"/>
       <c r="D476" t="str" cm="1">
         <f t="array" aca="1" ref="D476" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C476))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C476))=1), "C", "")</f>
         <v/>
@@ -47943,7 +47491,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B477" s="4"/>
       <c r="D477" t="str" cm="1">
         <f t="array" aca="1" ref="D477" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C477))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C477))=1), "C", "")</f>
         <v/>
@@ -47966,7 +47513,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B478" s="4"/>
       <c r="D478" t="str" cm="1">
         <f t="array" aca="1" ref="D478" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C478))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C478))=1), "C", "")</f>
         <v/>
@@ -47989,7 +47535,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B479" s="4"/>
       <c r="D479" t="str" cm="1">
         <f t="array" aca="1" ref="D479" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C479))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C479))=1), "C", "")</f>
         <v/>
@@ -48012,7 +47557,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B480" s="4"/>
       <c r="D480" t="str" cm="1">
         <f t="array" aca="1" ref="D480" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C480))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C480))=1), "C", "")</f>
         <v/>
@@ -48035,7 +47579,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B481" s="4"/>
       <c r="D481" t="str" cm="1">
         <f t="array" aca="1" ref="D481" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C481))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C481))=1), "C", "")</f>
         <v/>
@@ -48058,7 +47601,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B482" s="4"/>
       <c r="D482" t="str" cm="1">
         <f t="array" aca="1" ref="D482" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C482))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C482))=1), "C", "")</f>
         <v/>
@@ -48081,7 +47623,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B483" s="4"/>
       <c r="D483" t="str" cm="1">
         <f t="array" aca="1" ref="D483" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C483))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C483))=1), "C", "")</f>
         <v/>
@@ -48104,7 +47645,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B484" s="4"/>
       <c r="D484" t="str" cm="1">
         <f t="array" aca="1" ref="D484" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C484))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C484))=1), "C", "")</f>
         <v/>
@@ -48127,7 +47667,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B485" s="4"/>
       <c r="D485" t="str" cm="1">
         <f t="array" aca="1" ref="D485" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C485))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C485))=1), "C", "")</f>
         <v/>
@@ -48150,7 +47689,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B486" s="4"/>
       <c r="D486" t="str" cm="1">
         <f t="array" aca="1" ref="D486" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C486))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C486))=1), "C", "")</f>
         <v/>
@@ -48173,7 +47711,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B487" s="4"/>
       <c r="D487" t="str" cm="1">
         <f t="array" aca="1" ref="D487" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C487))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C487))=1), "C", "")</f>
         <v/>
@@ -48196,7 +47733,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B488" s="4"/>
       <c r="D488" t="str" cm="1">
         <f t="array" aca="1" ref="D488" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C488))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C488))=1), "C", "")</f>
         <v/>
@@ -48219,7 +47755,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B489" s="4"/>
       <c r="D489" t="str" cm="1">
         <f t="array" aca="1" ref="D489" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C489))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C489))=1), "C", "")</f>
         <v/>
@@ -48242,7 +47777,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B490" s="4"/>
       <c r="D490" t="str" cm="1">
         <f t="array" aca="1" ref="D490" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C490))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C490))=1), "C", "")</f>
         <v/>
@@ -48265,7 +47799,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B491" s="4"/>
       <c r="D491" t="str" cm="1">
         <f t="array" aca="1" ref="D491" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C491))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C491))=1), "C", "")</f>
         <v/>
@@ -48288,7 +47821,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B492" s="4"/>
       <c r="D492" t="str" cm="1">
         <f t="array" aca="1" ref="D492" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C492))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C492))=1), "C", "")</f>
         <v/>
@@ -48311,7 +47843,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B493" s="4"/>
       <c r="D493" t="str" cm="1">
         <f t="array" aca="1" ref="D493" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C493))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C493))=1), "C", "")</f>
         <v/>
@@ -48334,7 +47865,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B494" s="4"/>
       <c r="D494" t="str" cm="1">
         <f t="array" aca="1" ref="D494" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C494))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C494))=1), "C", "")</f>
         <v/>
@@ -48357,7 +47887,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B495" s="4"/>
       <c r="D495" t="str" cm="1">
         <f t="array" aca="1" ref="D495" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C495))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C495))=1), "C", "")</f>
         <v/>
@@ -48380,7 +47909,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B496" s="4"/>
       <c r="D496" t="str" cm="1">
         <f t="array" aca="1" ref="D496" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C496))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C496))=1), "C", "")</f>
         <v/>
@@ -48403,7 +47931,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B497" s="4"/>
       <c r="D497" t="str" cm="1">
         <f t="array" aca="1" ref="D497" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C497))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C497))=1), "C", "")</f>
         <v/>
@@ -48426,7 +47953,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B498" s="4"/>
       <c r="D498" t="str" cm="1">
         <f t="array" aca="1" ref="D498" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C498))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C498))=1), "C", "")</f>
         <v/>
@@ -48449,7 +47975,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B499" s="4"/>
       <c r="D499" t="str" cm="1">
         <f t="array" aca="1" ref="D499" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C499))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C499))=1), "C", "")</f>
         <v/>
@@ -48472,7 +47997,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B500" s="4"/>
       <c r="D500" t="str" cm="1">
         <f t="array" aca="1" ref="D500" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C500))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C500))=1), "C", "")</f>
         <v/>
@@ -48495,7 +48019,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B501" s="4"/>
       <c r="D501" t="str" cm="1">
         <f t="array" aca="1" ref="D501" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C501))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C501))=1), "C", "")</f>
         <v/>
@@ -48518,7 +48041,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B502" s="4"/>
       <c r="D502" t="str" cm="1">
         <f t="array" aca="1" ref="D502" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C502))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C502))=1), "C", "")</f>
         <v/>
@@ -48541,7 +48063,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B503" s="4"/>
       <c r="D503" t="str" cm="1">
         <f t="array" aca="1" ref="D503" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C503))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C503))=1), "C", "")</f>
         <v/>
@@ -48564,7 +48085,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B504" s="4"/>
       <c r="D504" t="str" cm="1">
         <f t="array" aca="1" ref="D504" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C504))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C504))=1), "C", "")</f>
         <v/>
@@ -48587,7 +48107,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B505" s="4"/>
       <c r="D505" t="str" cm="1">
         <f t="array" aca="1" ref="D505" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C505))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C505))=1), "C", "")</f>
         <v/>
@@ -48610,7 +48129,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B506" s="4"/>
       <c r="D506" t="str" cm="1">
         <f t="array" aca="1" ref="D506" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C506))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C506))=1), "C", "")</f>
         <v/>
@@ -48633,7 +48151,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B507" s="4"/>
       <c r="D507" t="str" cm="1">
         <f t="array" aca="1" ref="D507" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C507))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C507))=1), "C", "")</f>
         <v/>
@@ -48656,7 +48173,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B508" s="4"/>
       <c r="D508" t="str" cm="1">
         <f t="array" aca="1" ref="D508" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C508))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C508))=1), "C", "")</f>
         <v/>
@@ -48679,7 +48195,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B509" s="4"/>
       <c r="D509" t="str" cm="1">
         <f t="array" aca="1" ref="D509" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C509))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C509))=1), "C", "")</f>
         <v/>
@@ -48702,7 +48217,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B510" s="4"/>
       <c r="D510" t="str" cm="1">
         <f t="array" aca="1" ref="D510" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C510))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C510))=1), "C", "")</f>
         <v/>
@@ -48725,7 +48239,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B511" s="4"/>
       <c r="D511" t="str" cm="1">
         <f t="array" aca="1" ref="D511" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C511))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C511))=1), "C", "")</f>
         <v/>
@@ -48748,7 +48261,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B512" s="4"/>
       <c r="D512" t="str" cm="1">
         <f t="array" aca="1" ref="D512" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C512))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C512))=1), "C", "")</f>
         <v/>
@@ -48771,7 +48283,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B513" s="4"/>
       <c r="D513" t="str" cm="1">
         <f t="array" aca="1" ref="D513" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C513))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C513))=1), "C", "")</f>
         <v/>
@@ -48794,7 +48305,6 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="B514" s="4"/>
       <c r="D514" t="str" cm="1">
         <f t="array" aca="1" ref="D514" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C514))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C514))=1), "C", "")</f>
         <v/>
@@ -48817,7 +48327,6 @@
         <f t="shared" ref="A515:A578" ca="1" si="24">IF(AND(C515&lt;&gt;"",D515&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D515),"_"),C515),"")</f>
         <v/>
       </c>
-      <c r="B515" s="4"/>
       <c r="D515" t="str" cm="1">
         <f t="array" aca="1" ref="D515" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C515))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C515))=1), "C", "")</f>
         <v/>
@@ -48840,7 +48349,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B516" s="4"/>
       <c r="D516" t="str" cm="1">
         <f t="array" aca="1" ref="D516" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C516))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C516))=1), "C", "")</f>
         <v/>
@@ -48863,7 +48371,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B517" s="4"/>
       <c r="D517" t="str" cm="1">
         <f t="array" aca="1" ref="D517" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C517))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C517))=1), "C", "")</f>
         <v/>
@@ -48886,7 +48393,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B518" s="4"/>
       <c r="D518" t="str" cm="1">
         <f t="array" aca="1" ref="D518" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C518))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C518))=1), "C", "")</f>
         <v/>
@@ -48909,7 +48415,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B519" s="4"/>
       <c r="D519" t="str" cm="1">
         <f t="array" aca="1" ref="D519" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C519))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C519))=1), "C", "")</f>
         <v/>
@@ -48932,7 +48437,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B520" s="4"/>
       <c r="D520" t="str" cm="1">
         <f t="array" aca="1" ref="D520" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C520))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C520))=1), "C", "")</f>
         <v/>
@@ -48955,7 +48459,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B521" s="4"/>
       <c r="D521" t="str" cm="1">
         <f t="array" aca="1" ref="D521" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C521))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C521))=1), "C", "")</f>
         <v/>
@@ -48978,7 +48481,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B522" s="4"/>
       <c r="D522" t="str" cm="1">
         <f t="array" aca="1" ref="D522" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C522))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C522))=1), "C", "")</f>
         <v/>
@@ -49001,7 +48503,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B523" s="4"/>
       <c r="D523" t="str" cm="1">
         <f t="array" aca="1" ref="D523" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C523))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C523))=1), "C", "")</f>
         <v/>
@@ -49024,7 +48525,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B524" s="4"/>
       <c r="D524" t="str" cm="1">
         <f t="array" aca="1" ref="D524" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C524))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C524))=1), "C", "")</f>
         <v/>
@@ -49047,7 +48547,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B525" s="4"/>
       <c r="D525" t="str" cm="1">
         <f t="array" aca="1" ref="D525" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C525))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C525))=1), "C", "")</f>
         <v/>
@@ -49070,7 +48569,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B526" s="4"/>
       <c r="D526" t="str" cm="1">
         <f t="array" aca="1" ref="D526" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C526))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C526))=1), "C", "")</f>
         <v/>
@@ -49093,7 +48591,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B527" s="4"/>
       <c r="D527" t="str" cm="1">
         <f t="array" aca="1" ref="D527" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C527))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C527))=1), "C", "")</f>
         <v/>
@@ -49116,7 +48613,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B528" s="4"/>
       <c r="D528" t="str" cm="1">
         <f t="array" aca="1" ref="D528" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C528))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C528))=1), "C", "")</f>
         <v/>
@@ -49139,7 +48635,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B529" s="4"/>
       <c r="D529" t="str" cm="1">
         <f t="array" aca="1" ref="D529" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C529))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C529))=1), "C", "")</f>
         <v/>
@@ -49162,7 +48657,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B530" s="4"/>
       <c r="D530" t="str" cm="1">
         <f t="array" aca="1" ref="D530" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C530))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C530))=1), "C", "")</f>
         <v/>
@@ -49185,7 +48679,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B531" s="4"/>
       <c r="D531" t="str" cm="1">
         <f t="array" aca="1" ref="D531" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C531))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C531))=1), "C", "")</f>
         <v/>
@@ -49208,7 +48701,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B532" s="4"/>
       <c r="D532" t="str" cm="1">
         <f t="array" aca="1" ref="D532" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C532))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C532))=1), "C", "")</f>
         <v/>
@@ -49231,7 +48723,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B533" s="4"/>
       <c r="D533" t="str" cm="1">
         <f t="array" aca="1" ref="D533" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C533))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C533))=1), "C", "")</f>
         <v/>
@@ -49254,7 +48745,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B534" s="4"/>
       <c r="D534" t="str" cm="1">
         <f t="array" aca="1" ref="D534" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C534))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C534))=1), "C", "")</f>
         <v/>
@@ -49277,7 +48767,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B535" s="4"/>
       <c r="D535" t="str" cm="1">
         <f t="array" aca="1" ref="D535" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C535))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C535))=1), "C", "")</f>
         <v/>
@@ -49300,7 +48789,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B536" s="4"/>
       <c r="D536" t="str" cm="1">
         <f t="array" aca="1" ref="D536" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C536))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C536))=1), "C", "")</f>
         <v/>
@@ -49323,7 +48811,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B537" s="4"/>
       <c r="D537" t="str" cm="1">
         <f t="array" aca="1" ref="D537" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C537))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C537))=1), "C", "")</f>
         <v/>
@@ -49346,7 +48833,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B538" s="4"/>
       <c r="D538" t="str" cm="1">
         <f t="array" aca="1" ref="D538" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C538))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C538))=1), "C", "")</f>
         <v/>
@@ -49369,7 +48855,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B539" s="4"/>
       <c r="D539" t="str" cm="1">
         <f t="array" aca="1" ref="D539" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C539))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C539))=1), "C", "")</f>
         <v/>
@@ -49392,7 +48877,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B540" s="4"/>
       <c r="D540" t="str" cm="1">
         <f t="array" aca="1" ref="D540" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C540))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C540))=1), "C", "")</f>
         <v/>
@@ -49415,7 +48899,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B541" s="4"/>
       <c r="D541" t="str" cm="1">
         <f t="array" aca="1" ref="D541" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C541))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C541))=1), "C", "")</f>
         <v/>
@@ -49438,7 +48921,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B542" s="4"/>
       <c r="D542" t="str" cm="1">
         <f t="array" aca="1" ref="D542" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C542))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C542))=1), "C", "")</f>
         <v/>
@@ -49461,7 +48943,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B543" s="4"/>
       <c r="D543" t="str" cm="1">
         <f t="array" aca="1" ref="D543" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C543))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C543))=1), "C", "")</f>
         <v/>
@@ -49484,7 +48965,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B544" s="4"/>
       <c r="D544" t="str" cm="1">
         <f t="array" aca="1" ref="D544" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C544))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C544))=1), "C", "")</f>
         <v/>
@@ -49507,7 +48987,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B545" s="4"/>
       <c r="D545" t="str" cm="1">
         <f t="array" aca="1" ref="D545" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C545))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C545))=1), "C", "")</f>
         <v/>
@@ -49530,7 +49009,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B546" s="4"/>
       <c r="D546" t="str" cm="1">
         <f t="array" aca="1" ref="D546" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C546))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C546))=1), "C", "")</f>
         <v/>
@@ -49553,7 +49031,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B547" s="4"/>
       <c r="D547" t="str" cm="1">
         <f t="array" aca="1" ref="D547" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C547))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C547))=1), "C", "")</f>
         <v/>
@@ -49576,7 +49053,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B548" s="4"/>
       <c r="D548" t="str" cm="1">
         <f t="array" aca="1" ref="D548" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C548))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C548))=1), "C", "")</f>
         <v/>
@@ -49599,7 +49075,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B549" s="4"/>
       <c r="D549" t="str" cm="1">
         <f t="array" aca="1" ref="D549" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C549))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C549))=1), "C", "")</f>
         <v/>
@@ -49622,7 +49097,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B550" s="4"/>
       <c r="D550" t="str" cm="1">
         <f t="array" aca="1" ref="D550" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C550))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C550))=1), "C", "")</f>
         <v/>
@@ -49645,7 +49119,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B551" s="4"/>
       <c r="D551" t="str" cm="1">
         <f t="array" aca="1" ref="D551" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C551))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C551))=1), "C", "")</f>
         <v/>
@@ -49668,7 +49141,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B552" s="4"/>
       <c r="D552" t="str" cm="1">
         <f t="array" aca="1" ref="D552" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C552))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C552))=1), "C", "")</f>
         <v/>
@@ -49691,7 +49163,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B553" s="4"/>
       <c r="D553" t="str" cm="1">
         <f t="array" aca="1" ref="D553" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C553))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C553))=1), "C", "")</f>
         <v/>
@@ -49714,7 +49185,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B554" s="4"/>
       <c r="D554" t="str" cm="1">
         <f t="array" aca="1" ref="D554" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C554))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C554))=1), "C", "")</f>
         <v/>
@@ -49737,7 +49207,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B555" s="4"/>
       <c r="D555" t="str" cm="1">
         <f t="array" aca="1" ref="D555" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C555))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C555))=1), "C", "")</f>
         <v/>
@@ -49760,7 +49229,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B556" s="4"/>
       <c r="D556" t="str" cm="1">
         <f t="array" aca="1" ref="D556" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C556))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C556))=1), "C", "")</f>
         <v/>
@@ -49783,7 +49251,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B557" s="4"/>
       <c r="D557" t="str" cm="1">
         <f t="array" aca="1" ref="D557" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C557))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C557))=1), "C", "")</f>
         <v/>
@@ -49806,7 +49273,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B558" s="4"/>
       <c r="D558" t="str" cm="1">
         <f t="array" aca="1" ref="D558" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C558))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C558))=1), "C", "")</f>
         <v/>
@@ -49829,7 +49295,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B559" s="4"/>
       <c r="D559" t="str" cm="1">
         <f t="array" aca="1" ref="D559" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C559))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C559))=1), "C", "")</f>
         <v/>
@@ -49852,7 +49317,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B560" s="4"/>
       <c r="D560" t="str" cm="1">
         <f t="array" aca="1" ref="D560" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C560))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C560))=1), "C", "")</f>
         <v/>
@@ -49875,7 +49339,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B561" s="4"/>
       <c r="D561" t="str" cm="1">
         <f t="array" aca="1" ref="D561" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C561))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C561))=1), "C", "")</f>
         <v/>
@@ -49898,7 +49361,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B562" s="4"/>
       <c r="D562" t="str" cm="1">
         <f t="array" aca="1" ref="D562" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C562))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C562))=1), "C", "")</f>
         <v/>
@@ -49921,7 +49383,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B563" s="4"/>
       <c r="D563" t="str" cm="1">
         <f t="array" aca="1" ref="D563" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C563))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C563))=1), "C", "")</f>
         <v/>
@@ -49944,7 +49405,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B564" s="4"/>
       <c r="D564" t="str" cm="1">
         <f t="array" aca="1" ref="D564" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C564))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C564))=1), "C", "")</f>
         <v/>
@@ -49967,7 +49427,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B565" s="4"/>
       <c r="D565" t="str" cm="1">
         <f t="array" aca="1" ref="D565" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C565))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C565))=1), "C", "")</f>
         <v/>
@@ -49990,7 +49449,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B566" s="4"/>
       <c r="D566" t="str" cm="1">
         <f t="array" aca="1" ref="D566" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C566))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C566))=1), "C", "")</f>
         <v/>
@@ -50013,7 +49471,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B567" s="4"/>
       <c r="D567" t="str" cm="1">
         <f t="array" aca="1" ref="D567" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C567))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C567))=1), "C", "")</f>
         <v/>
@@ -50036,7 +49493,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B568" s="4"/>
       <c r="D568" t="str" cm="1">
         <f t="array" aca="1" ref="D568" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C568))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C568))=1), "C", "")</f>
         <v/>
@@ -50059,7 +49515,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B569" s="4"/>
       <c r="D569" t="str" cm="1">
         <f t="array" aca="1" ref="D569" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C569))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C569))=1), "C", "")</f>
         <v/>
@@ -50082,7 +49537,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B570" s="4"/>
       <c r="D570" t="str" cm="1">
         <f t="array" aca="1" ref="D570" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C570))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C570))=1), "C", "")</f>
         <v/>
@@ -50105,7 +49559,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B571" s="4"/>
       <c r="D571" t="str" cm="1">
         <f t="array" aca="1" ref="D571" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C571))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C571))=1), "C", "")</f>
         <v/>
@@ -50128,7 +49581,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B572" s="4"/>
       <c r="D572" t="str" cm="1">
         <f t="array" aca="1" ref="D572" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C572))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C572))=1), "C", "")</f>
         <v/>
@@ -50151,7 +49603,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B573" s="4"/>
       <c r="D573" t="str" cm="1">
         <f t="array" aca="1" ref="D573" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C573))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C573))=1), "C", "")</f>
         <v/>
@@ -50174,7 +49625,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B574" s="4"/>
       <c r="D574" t="str" cm="1">
         <f t="array" aca="1" ref="D574" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C574))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C574))=1), "C", "")</f>
         <v/>
@@ -50197,7 +49647,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B575" s="4"/>
       <c r="D575" t="str" cm="1">
         <f t="array" aca="1" ref="D575" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C575))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C575))=1), "C", "")</f>
         <v/>
@@ -50220,7 +49669,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B576" s="4"/>
       <c r="D576" t="str" cm="1">
         <f t="array" aca="1" ref="D576" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C576))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C576))=1), "C", "")</f>
         <v/>
@@ -50243,7 +49691,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B577" s="4"/>
       <c r="D577" t="str" cm="1">
         <f t="array" aca="1" ref="D577" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C577))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C577))=1), "C", "")</f>
         <v/>
@@ -50266,7 +49713,6 @@
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="B578" s="4"/>
       <c r="D578" t="str" cm="1">
         <f t="array" aca="1" ref="D578" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C578))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C578))=1), "C", "")</f>
         <v/>
@@ -50289,7 +49735,6 @@
         <f t="shared" ref="A579:A642" ca="1" si="28">IF(AND(C579&lt;&gt;"",D579&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D579),"_"),C579),"")</f>
         <v/>
       </c>
-      <c r="B579" s="4"/>
       <c r="D579" t="str" cm="1">
         <f t="array" aca="1" ref="D579" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C579))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C579))=1), "C", "")</f>
         <v/>
@@ -50312,7 +49757,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B580" s="4"/>
       <c r="D580" t="str" cm="1">
         <f t="array" aca="1" ref="D580" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C580))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C580))=1), "C", "")</f>
         <v/>
@@ -50335,7 +49779,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B581" s="4"/>
       <c r="D581" t="str" cm="1">
         <f t="array" aca="1" ref="D581" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C581))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C581))=1), "C", "")</f>
         <v/>
@@ -50358,7 +49801,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B582" s="4"/>
       <c r="D582" t="str" cm="1">
         <f t="array" aca="1" ref="D582" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C582))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C582))=1), "C", "")</f>
         <v/>
@@ -50381,7 +49823,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B583" s="4"/>
       <c r="D583" t="str" cm="1">
         <f t="array" aca="1" ref="D583" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C583))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C583))=1), "C", "")</f>
         <v/>
@@ -50404,7 +49845,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B584" s="4"/>
       <c r="D584" t="str" cm="1">
         <f t="array" aca="1" ref="D584" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C584))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C584))=1), "C", "")</f>
         <v/>
@@ -50427,7 +49867,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B585" s="4"/>
       <c r="D585" t="str" cm="1">
         <f t="array" aca="1" ref="D585" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C585))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C585))=1), "C", "")</f>
         <v/>
@@ -50450,7 +49889,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B586" s="4"/>
       <c r="D586" t="str" cm="1">
         <f t="array" aca="1" ref="D586" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C586))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C586))=1), "C", "")</f>
         <v/>
@@ -50473,7 +49911,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B587" s="4"/>
       <c r="D587" t="str" cm="1">
         <f t="array" aca="1" ref="D587" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C587))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C587))=1), "C", "")</f>
         <v/>
@@ -50496,7 +49933,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B588" s="4"/>
       <c r="D588" t="str" cm="1">
         <f t="array" aca="1" ref="D588" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C588))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C588))=1), "C", "")</f>
         <v/>
@@ -50519,7 +49955,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B589" s="4"/>
       <c r="D589" t="str" cm="1">
         <f t="array" aca="1" ref="D589" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C589))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C589))=1), "C", "")</f>
         <v/>
@@ -50542,7 +49977,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B590" s="4"/>
       <c r="D590" t="str" cm="1">
         <f t="array" aca="1" ref="D590" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C590))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C590))=1), "C", "")</f>
         <v/>
@@ -50565,7 +49999,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B591" s="4"/>
       <c r="D591" t="str" cm="1">
         <f t="array" aca="1" ref="D591" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C591))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C591))=1), "C", "")</f>
         <v/>
@@ -50588,7 +50021,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B592" s="4"/>
       <c r="D592" t="str" cm="1">
         <f t="array" aca="1" ref="D592" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C592))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C592))=1), "C", "")</f>
         <v/>
@@ -50611,7 +50043,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B593" s="4"/>
       <c r="D593" t="str" cm="1">
         <f t="array" aca="1" ref="D593" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C593))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C593))=1), "C", "")</f>
         <v/>
@@ -50634,7 +50065,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B594" s="4"/>
       <c r="D594" t="str" cm="1">
         <f t="array" aca="1" ref="D594" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C594))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C594))=1), "C", "")</f>
         <v/>
@@ -50657,7 +50087,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B595" s="4"/>
       <c r="D595" t="str" cm="1">
         <f t="array" aca="1" ref="D595" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C595))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C595))=1), "C", "")</f>
         <v/>
@@ -50680,7 +50109,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B596" s="4"/>
       <c r="D596" t="str" cm="1">
         <f t="array" aca="1" ref="D596" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C596))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C596))=1), "C", "")</f>
         <v/>
@@ -50703,7 +50131,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B597" s="4"/>
       <c r="D597" t="str" cm="1">
         <f t="array" aca="1" ref="D597" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C597))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C597))=1), "C", "")</f>
         <v/>
@@ -50726,7 +50153,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B598" s="4"/>
       <c r="D598" t="str" cm="1">
         <f t="array" aca="1" ref="D598" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C598))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C598))=1), "C", "")</f>
         <v/>
@@ -50749,7 +50175,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B599" s="4"/>
       <c r="D599" t="str" cm="1">
         <f t="array" aca="1" ref="D599" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C599))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C599))=1), "C", "")</f>
         <v/>
@@ -50772,7 +50197,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B600" s="4"/>
       <c r="D600" t="str" cm="1">
         <f t="array" aca="1" ref="D600" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C600))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C600))=1), "C", "")</f>
         <v/>
@@ -50795,7 +50219,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B601" s="4"/>
       <c r="D601" t="str" cm="1">
         <f t="array" aca="1" ref="D601" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C601))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C601))=1), "C", "")</f>
         <v/>
@@ -50818,7 +50241,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B602" s="4"/>
       <c r="D602" t="str" cm="1">
         <f t="array" aca="1" ref="D602" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C602))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C602))=1), "C", "")</f>
         <v/>
@@ -50841,7 +50263,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B603" s="4"/>
       <c r="D603" t="str" cm="1">
         <f t="array" aca="1" ref="D603" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C603))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C603))=1), "C", "")</f>
         <v/>
@@ -50864,7 +50285,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B604" s="4"/>
       <c r="D604" t="str" cm="1">
         <f t="array" aca="1" ref="D604" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C604))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C604))=1), "C", "")</f>
         <v/>
@@ -50887,7 +50307,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B605" s="4"/>
       <c r="D605" t="str" cm="1">
         <f t="array" aca="1" ref="D605" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C605))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C605))=1), "C", "")</f>
         <v/>
@@ -50910,7 +50329,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B606" s="4"/>
       <c r="D606" t="str" cm="1">
         <f t="array" aca="1" ref="D606" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C606))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C606))=1), "C", "")</f>
         <v/>
@@ -50933,7 +50351,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B607" s="4"/>
       <c r="D607" t="str" cm="1">
         <f t="array" aca="1" ref="D607" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C607))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C607))=1), "C", "")</f>
         <v/>
@@ -50956,7 +50373,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B608" s="4"/>
       <c r="D608" t="str" cm="1">
         <f t="array" aca="1" ref="D608" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C608))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C608))=1), "C", "")</f>
         <v/>
@@ -50979,7 +50395,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B609" s="4"/>
       <c r="D609" t="str" cm="1">
         <f t="array" aca="1" ref="D609" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C609))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C609))=1), "C", "")</f>
         <v/>
@@ -51002,7 +50417,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B610" s="4"/>
       <c r="D610" t="str" cm="1">
         <f t="array" aca="1" ref="D610" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C610))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C610))=1), "C", "")</f>
         <v/>
@@ -51025,7 +50439,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B611" s="4"/>
       <c r="D611" t="str" cm="1">
         <f t="array" aca="1" ref="D611" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C611))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C611))=1), "C", "")</f>
         <v/>
@@ -51048,7 +50461,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B612" s="4"/>
       <c r="D612" t="str" cm="1">
         <f t="array" aca="1" ref="D612" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C612))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C612))=1), "C", "")</f>
         <v/>
@@ -51071,7 +50483,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B613" s="4"/>
       <c r="D613" t="str" cm="1">
         <f t="array" aca="1" ref="D613" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C613))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C613))=1), "C", "")</f>
         <v/>
@@ -51094,7 +50505,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B614" s="4"/>
       <c r="D614" t="str" cm="1">
         <f t="array" aca="1" ref="D614" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C614))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C614))=1), "C", "")</f>
         <v/>
@@ -51117,7 +50527,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B615" s="4"/>
       <c r="D615" t="str" cm="1">
         <f t="array" aca="1" ref="D615" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C615))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C615))=1), "C", "")</f>
         <v/>
@@ -51140,7 +50549,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B616" s="4"/>
       <c r="D616" t="str" cm="1">
         <f t="array" aca="1" ref="D616" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C616))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C616))=1), "C", "")</f>
         <v/>
@@ -51163,7 +50571,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B617" s="4"/>
       <c r="D617" t="str" cm="1">
         <f t="array" aca="1" ref="D617" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C617))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C617))=1), "C", "")</f>
         <v/>
@@ -51186,7 +50593,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B618" s="4"/>
       <c r="D618" t="str" cm="1">
         <f t="array" aca="1" ref="D618" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C618))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C618))=1), "C", "")</f>
         <v/>
@@ -51209,7 +50615,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B619" s="4"/>
       <c r="D619" t="str" cm="1">
         <f t="array" aca="1" ref="D619" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C619))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C619))=1), "C", "")</f>
         <v/>
@@ -51232,7 +50637,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B620" s="4"/>
       <c r="D620" t="str" cm="1">
         <f t="array" aca="1" ref="D620" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C620))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C620))=1), "C", "")</f>
         <v/>
@@ -51255,7 +50659,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B621" s="4"/>
       <c r="D621" t="str" cm="1">
         <f t="array" aca="1" ref="D621" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C621))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C621))=1), "C", "")</f>
         <v/>
@@ -51278,7 +50681,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B622" s="4"/>
       <c r="D622" t="str" cm="1">
         <f t="array" aca="1" ref="D622" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C622))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C622))=1), "C", "")</f>
         <v/>
@@ -51301,7 +50703,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B623" s="4"/>
       <c r="D623" t="str" cm="1">
         <f t="array" aca="1" ref="D623" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C623))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C623))=1), "C", "")</f>
         <v/>
@@ -51324,7 +50725,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B624" s="4"/>
       <c r="D624" t="str" cm="1">
         <f t="array" aca="1" ref="D624" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C624))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C624))=1), "C", "")</f>
         <v/>
@@ -51347,7 +50747,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B625" s="4"/>
       <c r="D625" t="str" cm="1">
         <f t="array" aca="1" ref="D625" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C625))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C625))=1), "C", "")</f>
         <v/>
@@ -51370,7 +50769,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B626" s="4"/>
       <c r="D626" t="str" cm="1">
         <f t="array" aca="1" ref="D626" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C626))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C626))=1), "C", "")</f>
         <v/>
@@ -51393,7 +50791,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B627" s="4"/>
       <c r="D627" t="str" cm="1">
         <f t="array" aca="1" ref="D627" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C627))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C627))=1), "C", "")</f>
         <v/>
@@ -51416,7 +50813,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B628" s="4"/>
       <c r="D628" t="str" cm="1">
         <f t="array" aca="1" ref="D628" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C628))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C628))=1), "C", "")</f>
         <v/>
@@ -51439,7 +50835,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B629" s="4"/>
       <c r="D629" t="str" cm="1">
         <f t="array" aca="1" ref="D629" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C629))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C629))=1), "C", "")</f>
         <v/>
@@ -51462,7 +50857,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B630" s="4"/>
       <c r="D630" t="str" cm="1">
         <f t="array" aca="1" ref="D630" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C630))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C630))=1), "C", "")</f>
         <v/>
@@ -51485,7 +50879,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B631" s="4"/>
       <c r="D631" t="str" cm="1">
         <f t="array" aca="1" ref="D631" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C631))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C631))=1), "C", "")</f>
         <v/>
@@ -51508,7 +50901,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B632" s="4"/>
       <c r="D632" t="str" cm="1">
         <f t="array" aca="1" ref="D632" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C632))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C632))=1), "C", "")</f>
         <v/>
@@ -51531,7 +50923,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B633" s="4"/>
       <c r="D633" t="str" cm="1">
         <f t="array" aca="1" ref="D633" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C633))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C633))=1), "C", "")</f>
         <v/>
@@ -51554,7 +50945,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B634" s="4"/>
       <c r="D634" t="str" cm="1">
         <f t="array" aca="1" ref="D634" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C634))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C634))=1), "C", "")</f>
         <v/>
@@ -51577,7 +50967,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B635" s="4"/>
       <c r="D635" t="str" cm="1">
         <f t="array" aca="1" ref="D635" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C635))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C635))=1), "C", "")</f>
         <v/>
@@ -51600,7 +50989,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B636" s="4"/>
       <c r="D636" t="str" cm="1">
         <f t="array" aca="1" ref="D636" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C636))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C636))=1), "C", "")</f>
         <v/>
@@ -51623,7 +51011,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B637" s="4"/>
       <c r="D637" t="str" cm="1">
         <f t="array" aca="1" ref="D637" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C637))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C637))=1), "C", "")</f>
         <v/>
@@ -51646,7 +51033,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B638" s="4"/>
       <c r="D638" t="str" cm="1">
         <f t="array" aca="1" ref="D638" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C638))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C638))=1), "C", "")</f>
         <v/>
@@ -51669,7 +51055,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B639" s="4"/>
       <c r="D639" t="str" cm="1">
         <f t="array" aca="1" ref="D639" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C639))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C639))=1), "C", "")</f>
         <v/>
@@ -51692,7 +51077,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B640" s="4"/>
       <c r="D640" t="str" cm="1">
         <f t="array" aca="1" ref="D640" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C640))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C640))=1), "C", "")</f>
         <v/>
@@ -51715,7 +51099,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B641" s="4"/>
       <c r="D641" t="str" cm="1">
         <f t="array" aca="1" ref="D641" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C641))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C641))=1), "C", "")</f>
         <v/>
@@ -51738,7 +51121,6 @@
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="B642" s="4"/>
       <c r="D642" t="str" cm="1">
         <f t="array" aca="1" ref="D642" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C642))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C642))=1), "C", "")</f>
         <v/>
@@ -51761,7 +51143,6 @@
         <f t="shared" ref="A643:A706" ca="1" si="32">IF(AND(C643&lt;&gt;"",D643&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D643),"_"),C643),"")</f>
         <v/>
       </c>
-      <c r="B643" s="4"/>
       <c r="D643" t="str" cm="1">
         <f t="array" aca="1" ref="D643" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C643))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C643))=1), "C", "")</f>
         <v/>
@@ -51784,7 +51165,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B644" s="4"/>
       <c r="D644" t="str" cm="1">
         <f t="array" aca="1" ref="D644" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C644))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C644))=1), "C", "")</f>
         <v/>
@@ -51807,7 +51187,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B645" s="4"/>
       <c r="D645" t="str" cm="1">
         <f t="array" aca="1" ref="D645" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C645))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C645))=1), "C", "")</f>
         <v/>
@@ -51830,7 +51209,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B646" s="4"/>
       <c r="D646" t="str" cm="1">
         <f t="array" aca="1" ref="D646" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C646))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C646))=1), "C", "")</f>
         <v/>
@@ -51853,7 +51231,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B647" s="4"/>
       <c r="D647" t="str" cm="1">
         <f t="array" aca="1" ref="D647" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C647))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C647))=1), "C", "")</f>
         <v/>
@@ -51876,7 +51253,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B648" s="4"/>
       <c r="D648" t="str" cm="1">
         <f t="array" aca="1" ref="D648" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C648))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C648))=1), "C", "")</f>
         <v/>
@@ -51899,7 +51275,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B649" s="4"/>
       <c r="D649" t="str" cm="1">
         <f t="array" aca="1" ref="D649" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C649))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C649))=1), "C", "")</f>
         <v/>
@@ -51922,7 +51297,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B650" s="4"/>
       <c r="D650" t="str" cm="1">
         <f t="array" aca="1" ref="D650" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C650))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C650))=1), "C", "")</f>
         <v/>
@@ -51945,7 +51319,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B651" s="4"/>
       <c r="D651" t="str" cm="1">
         <f t="array" aca="1" ref="D651" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C651))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C651))=1), "C", "")</f>
         <v/>
@@ -51968,7 +51341,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B652" s="4"/>
       <c r="D652" t="str" cm="1">
         <f t="array" aca="1" ref="D652" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C652))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C652))=1), "C", "")</f>
         <v/>
@@ -51991,7 +51363,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B653" s="4"/>
       <c r="D653" t="str" cm="1">
         <f t="array" aca="1" ref="D653" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C653))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C653))=1), "C", "")</f>
         <v/>
@@ -52014,7 +51385,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B654" s="4"/>
       <c r="D654" t="str" cm="1">
         <f t="array" aca="1" ref="D654" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C654))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C654))=1), "C", "")</f>
         <v/>
@@ -52037,7 +51407,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B655" s="4"/>
       <c r="D655" t="str" cm="1">
         <f t="array" aca="1" ref="D655" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C655))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C655))=1), "C", "")</f>
         <v/>
@@ -52060,7 +51429,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B656" s="4"/>
       <c r="D656" t="str" cm="1">
         <f t="array" aca="1" ref="D656" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C656))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C656))=1), "C", "")</f>
         <v/>
@@ -52083,7 +51451,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B657" s="4"/>
       <c r="D657" t="str" cm="1">
         <f t="array" aca="1" ref="D657" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C657))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C657))=1), "C", "")</f>
         <v/>
@@ -52106,7 +51473,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B658" s="4"/>
       <c r="D658" t="str" cm="1">
         <f t="array" aca="1" ref="D658" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C658))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C658))=1), "C", "")</f>
         <v/>
@@ -52129,7 +51495,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B659" s="4"/>
       <c r="D659" t="str" cm="1">
         <f t="array" aca="1" ref="D659" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C659))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C659))=1), "C", "")</f>
         <v/>
@@ -52152,7 +51517,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B660" s="4"/>
       <c r="D660" t="str" cm="1">
         <f t="array" aca="1" ref="D660" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C660))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C660))=1), "C", "")</f>
         <v/>
@@ -52175,7 +51539,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B661" s="4"/>
       <c r="D661" t="str" cm="1">
         <f t="array" aca="1" ref="D661" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C661))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C661))=1), "C", "")</f>
         <v/>
@@ -52198,7 +51561,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B662" s="4"/>
       <c r="D662" t="str" cm="1">
         <f t="array" aca="1" ref="D662" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C662))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C662))=1), "C", "")</f>
         <v/>
@@ -52221,7 +51583,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B663" s="4"/>
       <c r="D663" t="str" cm="1">
         <f t="array" aca="1" ref="D663" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C663))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C663))=1), "C", "")</f>
         <v/>
@@ -52244,7 +51605,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B664" s="4"/>
       <c r="D664" t="str" cm="1">
         <f t="array" aca="1" ref="D664" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C664))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C664))=1), "C", "")</f>
         <v/>
@@ -52267,7 +51627,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B665" s="4"/>
       <c r="D665" t="str" cm="1">
         <f t="array" aca="1" ref="D665" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C665))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C665))=1), "C", "")</f>
         <v/>
@@ -52290,7 +51649,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B666" s="4"/>
       <c r="D666" t="str" cm="1">
         <f t="array" aca="1" ref="D666" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C666))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C666))=1), "C", "")</f>
         <v/>
@@ -52313,7 +51671,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B667" s="4"/>
       <c r="D667" t="str" cm="1">
         <f t="array" aca="1" ref="D667" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C667))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C667))=1), "C", "")</f>
         <v/>
@@ -52336,7 +51693,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B668" s="4"/>
       <c r="D668" t="str" cm="1">
         <f t="array" aca="1" ref="D668" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C668))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C668))=1), "C", "")</f>
         <v/>
@@ -52359,7 +51715,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B669" s="4"/>
       <c r="D669" t="str" cm="1">
         <f t="array" aca="1" ref="D669" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C669))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C669))=1), "C", "")</f>
         <v/>
@@ -52382,7 +51737,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B670" s="4"/>
       <c r="D670" t="str" cm="1">
         <f t="array" aca="1" ref="D670" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C670))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C670))=1), "C", "")</f>
         <v/>
@@ -52405,7 +51759,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B671" s="4"/>
       <c r="D671" t="str" cm="1">
         <f t="array" aca="1" ref="D671" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C671))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C671))=1), "C", "")</f>
         <v/>
@@ -52428,7 +51781,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B672" s="4"/>
       <c r="D672" t="str" cm="1">
         <f t="array" aca="1" ref="D672" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C672))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C672))=1), "C", "")</f>
         <v/>
@@ -52451,7 +51803,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B673" s="4"/>
       <c r="D673" t="str" cm="1">
         <f t="array" aca="1" ref="D673" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C673))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C673))=1), "C", "")</f>
         <v/>
@@ -52474,7 +51825,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B674" s="4"/>
       <c r="D674" t="str" cm="1">
         <f t="array" aca="1" ref="D674" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C674))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C674))=1), "C", "")</f>
         <v/>
@@ -52497,7 +51847,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B675" s="4"/>
       <c r="D675" t="str" cm="1">
         <f t="array" aca="1" ref="D675" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C675))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C675))=1), "C", "")</f>
         <v/>
@@ -52520,7 +51869,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B676" s="4"/>
       <c r="D676" t="str" cm="1">
         <f t="array" aca="1" ref="D676" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C676))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C676))=1), "C", "")</f>
         <v/>
@@ -52543,7 +51891,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B677" s="4"/>
       <c r="D677" t="str" cm="1">
         <f t="array" aca="1" ref="D677" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C677))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C677))=1), "C", "")</f>
         <v/>
@@ -52566,7 +51913,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B678" s="4"/>
       <c r="D678" t="str" cm="1">
         <f t="array" aca="1" ref="D678" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C678))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C678))=1), "C", "")</f>
         <v/>
@@ -52589,7 +51935,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B679" s="4"/>
       <c r="D679" t="str" cm="1">
         <f t="array" aca="1" ref="D679" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C679))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C679))=1), "C", "")</f>
         <v/>
@@ -52612,7 +51957,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B680" s="4"/>
       <c r="D680" t="str" cm="1">
         <f t="array" aca="1" ref="D680" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C680))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C680))=1), "C", "")</f>
         <v/>
@@ -52635,7 +51979,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B681" s="4"/>
       <c r="D681" t="str" cm="1">
         <f t="array" aca="1" ref="D681" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C681))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C681))=1), "C", "")</f>
         <v/>
@@ -52658,7 +52001,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B682" s="4"/>
       <c r="D682" t="str" cm="1">
         <f t="array" aca="1" ref="D682" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C682))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C682))=1), "C", "")</f>
         <v/>
@@ -52681,7 +52023,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B683" s="4"/>
       <c r="D683" t="str" cm="1">
         <f t="array" aca="1" ref="D683" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C683))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C683))=1), "C", "")</f>
         <v/>
@@ -52704,7 +52045,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B684" s="4"/>
       <c r="D684" t="str" cm="1">
         <f t="array" aca="1" ref="D684" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C684))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C684))=1), "C", "")</f>
         <v/>
@@ -52727,7 +52067,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B685" s="4"/>
       <c r="D685" t="str" cm="1">
         <f t="array" aca="1" ref="D685" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C685))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C685))=1), "C", "")</f>
         <v/>
@@ -52750,7 +52089,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B686" s="4"/>
       <c r="D686" t="str" cm="1">
         <f t="array" aca="1" ref="D686" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C686))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C686))=1), "C", "")</f>
         <v/>
@@ -52773,7 +52111,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B687" s="4"/>
       <c r="D687" t="str" cm="1">
         <f t="array" aca="1" ref="D687" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C687))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C687))=1), "C", "")</f>
         <v/>
@@ -52796,7 +52133,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B688" s="4"/>
       <c r="D688" t="str" cm="1">
         <f t="array" aca="1" ref="D688" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C688))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C688))=1), "C", "")</f>
         <v/>
@@ -52819,7 +52155,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B689" s="4"/>
       <c r="D689" t="str" cm="1">
         <f t="array" aca="1" ref="D689" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C689))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C689))=1), "C", "")</f>
         <v/>
@@ -52842,7 +52177,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B690" s="4"/>
       <c r="D690" t="str" cm="1">
         <f t="array" aca="1" ref="D690" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C690))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C690))=1), "C", "")</f>
         <v/>
@@ -52865,7 +52199,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B691" s="4"/>
       <c r="D691" t="str" cm="1">
         <f t="array" aca="1" ref="D691" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C691))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C691))=1), "C", "")</f>
         <v/>
@@ -52888,7 +52221,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B692" s="4"/>
       <c r="D692" t="str" cm="1">
         <f t="array" aca="1" ref="D692" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C692))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C692))=1), "C", "")</f>
         <v/>
@@ -52911,7 +52243,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B693" s="4"/>
       <c r="D693" t="str" cm="1">
         <f t="array" aca="1" ref="D693" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C693))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C693))=1), "C", "")</f>
         <v/>
@@ -52934,7 +52265,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B694" s="4"/>
       <c r="D694" t="str" cm="1">
         <f t="array" aca="1" ref="D694" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C694))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C694))=1), "C", "")</f>
         <v/>
@@ -52957,7 +52287,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B695" s="4"/>
       <c r="D695" t="str" cm="1">
         <f t="array" aca="1" ref="D695" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C695))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C695))=1), "C", "")</f>
         <v/>
@@ -52980,7 +52309,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B696" s="4"/>
       <c r="D696" t="str" cm="1">
         <f t="array" aca="1" ref="D696" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C696))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C696))=1), "C", "")</f>
         <v/>
@@ -53003,7 +52331,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B697" s="4"/>
       <c r="D697" t="str" cm="1">
         <f t="array" aca="1" ref="D697" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C697))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C697))=1), "C", "")</f>
         <v/>
@@ -53026,7 +52353,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B698" s="4"/>
       <c r="D698" t="str" cm="1">
         <f t="array" aca="1" ref="D698" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C698))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C698))=1), "C", "")</f>
         <v/>
@@ -53049,7 +52375,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B699" s="4"/>
       <c r="D699" t="str" cm="1">
         <f t="array" aca="1" ref="D699" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C699))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C699))=1), "C", "")</f>
         <v/>
@@ -53072,7 +52397,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B700" s="4"/>
       <c r="D700" t="str" cm="1">
         <f t="array" aca="1" ref="D700" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C700))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C700))=1), "C", "")</f>
         <v/>
@@ -53095,7 +52419,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B701" s="4"/>
       <c r="D701" t="str" cm="1">
         <f t="array" aca="1" ref="D701" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C701))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C701))=1), "C", "")</f>
         <v/>
@@ -53118,7 +52441,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B702" s="4"/>
       <c r="D702" t="str" cm="1">
         <f t="array" aca="1" ref="D702" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C702))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C702))=1), "C", "")</f>
         <v/>
@@ -53141,7 +52463,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B703" s="4"/>
       <c r="D703" t="str" cm="1">
         <f t="array" aca="1" ref="D703" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C703))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C703))=1), "C", "")</f>
         <v/>
@@ -53164,7 +52485,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B704" s="4"/>
       <c r="D704" t="str" cm="1">
         <f t="array" aca="1" ref="D704" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C704))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C704))=1), "C", "")</f>
         <v/>
@@ -53187,7 +52507,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B705" s="4"/>
       <c r="D705" t="str" cm="1">
         <f t="array" aca="1" ref="D705" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C705))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C705))=1), "C", "")</f>
         <v/>
@@ -53210,7 +52529,6 @@
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="B706" s="4"/>
       <c r="D706" t="str" cm="1">
         <f t="array" aca="1" ref="D706" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C706))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C706))=1), "C", "")</f>
         <v/>
@@ -53233,7 +52551,6 @@
         <f t="shared" ref="A707:A770" ca="1" si="36">IF(AND(C707&lt;&gt;"",D707&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D707),"_"),C707),"")</f>
         <v/>
       </c>
-      <c r="B707" s="4"/>
       <c r="D707" t="str" cm="1">
         <f t="array" aca="1" ref="D707" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C707))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C707))=1), "C", "")</f>
         <v/>
@@ -53256,7 +52573,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B708" s="4"/>
       <c r="D708" t="str" cm="1">
         <f t="array" aca="1" ref="D708" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C708))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C708))=1), "C", "")</f>
         <v/>
@@ -53279,7 +52595,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B709" s="4"/>
       <c r="D709" t="str" cm="1">
         <f t="array" aca="1" ref="D709" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C709))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C709))=1), "C", "")</f>
         <v/>
@@ -53302,7 +52617,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B710" s="4"/>
       <c r="D710" t="str" cm="1">
         <f t="array" aca="1" ref="D710" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C710))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C710))=1), "C", "")</f>
         <v/>
@@ -53325,7 +52639,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B711" s="4"/>
       <c r="D711" t="str" cm="1">
         <f t="array" aca="1" ref="D711" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C711))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C711))=1), "C", "")</f>
         <v/>
@@ -53348,7 +52661,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B712" s="4"/>
       <c r="D712" t="str" cm="1">
         <f t="array" aca="1" ref="D712" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C712))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C712))=1), "C", "")</f>
         <v/>
@@ -53371,7 +52683,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B713" s="4"/>
       <c r="D713" t="str" cm="1">
         <f t="array" aca="1" ref="D713" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C713))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C713))=1), "C", "")</f>
         <v/>
@@ -53394,7 +52705,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B714" s="4"/>
       <c r="D714" t="str" cm="1">
         <f t="array" aca="1" ref="D714" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C714))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C714))=1), "C", "")</f>
         <v/>
@@ -53417,7 +52727,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B715" s="4"/>
       <c r="D715" t="str" cm="1">
         <f t="array" aca="1" ref="D715" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C715))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C715))=1), "C", "")</f>
         <v/>
@@ -53440,7 +52749,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B716" s="4"/>
       <c r="D716" t="str" cm="1">
         <f t="array" aca="1" ref="D716" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C716))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C716))=1), "C", "")</f>
         <v/>
@@ -53463,7 +52771,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B717" s="4"/>
       <c r="D717" t="str" cm="1">
         <f t="array" aca="1" ref="D717" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C717))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C717))=1), "C", "")</f>
         <v/>
@@ -53486,7 +52793,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B718" s="4"/>
       <c r="D718" t="str" cm="1">
         <f t="array" aca="1" ref="D718" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C718))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C718))=1), "C", "")</f>
         <v/>
@@ -53509,7 +52815,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B719" s="4"/>
       <c r="D719" t="str" cm="1">
         <f t="array" aca="1" ref="D719" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C719))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C719))=1), "C", "")</f>
         <v/>
@@ -53532,7 +52837,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B720" s="4"/>
       <c r="D720" t="str" cm="1">
         <f t="array" aca="1" ref="D720" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C720))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C720))=1), "C", "")</f>
         <v/>
@@ -53555,7 +52859,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B721" s="4"/>
       <c r="D721" t="str" cm="1">
         <f t="array" aca="1" ref="D721" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C721))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C721))=1), "C", "")</f>
         <v/>
@@ -53578,7 +52881,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B722" s="4"/>
       <c r="D722" t="str" cm="1">
         <f t="array" aca="1" ref="D722" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C722))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C722))=1), "C", "")</f>
         <v/>
@@ -53601,7 +52903,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B723" s="4"/>
       <c r="D723" t="str" cm="1">
         <f t="array" aca="1" ref="D723" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C723))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C723))=1), "C", "")</f>
         <v/>
@@ -53624,7 +52925,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B724" s="4"/>
       <c r="D724" t="str" cm="1">
         <f t="array" aca="1" ref="D724" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C724))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C724))=1), "C", "")</f>
         <v/>
@@ -53647,7 +52947,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B725" s="4"/>
       <c r="D725" t="str" cm="1">
         <f t="array" aca="1" ref="D725" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C725))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C725))=1), "C", "")</f>
         <v/>
@@ -53670,7 +52969,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B726" s="4"/>
       <c r="D726" t="str" cm="1">
         <f t="array" aca="1" ref="D726" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C726))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C726))=1), "C", "")</f>
         <v/>
@@ -53693,7 +52991,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B727" s="4"/>
       <c r="D727" t="str" cm="1">
         <f t="array" aca="1" ref="D727" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C727))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C727))=1), "C", "")</f>
         <v/>
@@ -53716,7 +53013,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B728" s="4"/>
       <c r="D728" t="str" cm="1">
         <f t="array" aca="1" ref="D728" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C728))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C728))=1), "C", "")</f>
         <v/>
@@ -53739,7 +53035,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B729" s="4"/>
       <c r="D729" t="str" cm="1">
         <f t="array" aca="1" ref="D729" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C729))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C729))=1), "C", "")</f>
         <v/>
@@ -53762,7 +53057,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B730" s="4"/>
       <c r="D730" t="str" cm="1">
         <f t="array" aca="1" ref="D730" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C730))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C730))=1), "C", "")</f>
         <v/>
@@ -53785,7 +53079,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B731" s="4"/>
       <c r="D731" t="str" cm="1">
         <f t="array" aca="1" ref="D731" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C731))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C731))=1), "C", "")</f>
         <v/>
@@ -53808,7 +53101,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B732" s="4"/>
       <c r="D732" t="str" cm="1">
         <f t="array" aca="1" ref="D732" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C732))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C732))=1), "C", "")</f>
         <v/>
@@ -53831,7 +53123,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B733" s="4"/>
       <c r="D733" t="str" cm="1">
         <f t="array" aca="1" ref="D733" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C733))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C733))=1), "C", "")</f>
         <v/>
@@ -53854,7 +53145,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B734" s="4"/>
       <c r="D734" t="str" cm="1">
         <f t="array" aca="1" ref="D734" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C734))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C734))=1), "C", "")</f>
         <v/>
@@ -53877,7 +53167,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B735" s="4"/>
       <c r="D735" t="str" cm="1">
         <f t="array" aca="1" ref="D735" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C735))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C735))=1), "C", "")</f>
         <v/>
@@ -53900,7 +53189,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B736" s="4"/>
       <c r="D736" t="str" cm="1">
         <f t="array" aca="1" ref="D736" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C736))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C736))=1), "C", "")</f>
         <v/>
@@ -53923,7 +53211,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B737" s="4"/>
       <c r="D737" t="str" cm="1">
         <f t="array" aca="1" ref="D737" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C737))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C737))=1), "C", "")</f>
         <v/>
@@ -53946,7 +53233,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B738" s="4"/>
       <c r="D738" t="str" cm="1">
         <f t="array" aca="1" ref="D738" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C738))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C738))=1), "C", "")</f>
         <v/>
@@ -53969,7 +53255,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B739" s="4"/>
       <c r="D739" t="str" cm="1">
         <f t="array" aca="1" ref="D739" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C739))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C739))=1), "C", "")</f>
         <v/>
@@ -53992,7 +53277,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B740" s="4"/>
       <c r="D740" t="str" cm="1">
         <f t="array" aca="1" ref="D740" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C740))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C740))=1), "C", "")</f>
         <v/>
@@ -54015,7 +53299,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B741" s="4"/>
       <c r="D741" t="str" cm="1">
         <f t="array" aca="1" ref="D741" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C741))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C741))=1), "C", "")</f>
         <v/>
@@ -54038,7 +53321,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B742" s="4"/>
       <c r="D742" t="str" cm="1">
         <f t="array" aca="1" ref="D742" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C742))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C742))=1), "C", "")</f>
         <v/>
@@ -54061,7 +53343,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B743" s="4"/>
       <c r="D743" t="str" cm="1">
         <f t="array" aca="1" ref="D743" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C743))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C743))=1), "C", "")</f>
         <v/>
@@ -54084,7 +53365,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B744" s="4"/>
       <c r="D744" t="str" cm="1">
         <f t="array" aca="1" ref="D744" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C744))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C744))=1), "C", "")</f>
         <v/>
@@ -54107,7 +53387,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B745" s="4"/>
       <c r="D745" t="str" cm="1">
         <f t="array" aca="1" ref="D745" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C745))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C745))=1), "C", "")</f>
         <v/>
@@ -54130,7 +53409,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B746" s="4"/>
       <c r="D746" t="str" cm="1">
         <f t="array" aca="1" ref="D746" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C746))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C746))=1), "C", "")</f>
         <v/>
@@ -54153,7 +53431,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B747" s="4"/>
       <c r="D747" t="str" cm="1">
         <f t="array" aca="1" ref="D747" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C747))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C747))=1), "C", "")</f>
         <v/>
@@ -54176,7 +53453,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B748" s="4"/>
       <c r="D748" t="str" cm="1">
         <f t="array" aca="1" ref="D748" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C748))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C748))=1), "C", "")</f>
         <v/>
@@ -54199,7 +53475,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B749" s="4"/>
       <c r="D749" t="str" cm="1">
         <f t="array" aca="1" ref="D749" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C749))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C749))=1), "C", "")</f>
         <v/>
@@ -54222,7 +53497,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B750" s="4"/>
       <c r="D750" t="str" cm="1">
         <f t="array" aca="1" ref="D750" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C750))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C750))=1), "C", "")</f>
         <v/>
@@ -54245,7 +53519,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B751" s="4"/>
       <c r="D751" t="str" cm="1">
         <f t="array" aca="1" ref="D751" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C751))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C751))=1), "C", "")</f>
         <v/>
@@ -54268,7 +53541,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B752" s="4"/>
       <c r="D752" t="str" cm="1">
         <f t="array" aca="1" ref="D752" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C752))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C752))=1), "C", "")</f>
         <v/>
@@ -54291,7 +53563,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B753" s="4"/>
       <c r="D753" t="str" cm="1">
         <f t="array" aca="1" ref="D753" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C753))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C753))=1), "C", "")</f>
         <v/>
@@ -54314,7 +53585,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B754" s="4"/>
       <c r="D754" t="str" cm="1">
         <f t="array" aca="1" ref="D754" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C754))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C754))=1), "C", "")</f>
         <v/>
@@ -54337,7 +53607,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B755" s="4"/>
       <c r="D755" t="str" cm="1">
         <f t="array" aca="1" ref="D755" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C755))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C755))=1), "C", "")</f>
         <v/>
@@ -54360,7 +53629,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B756" s="4"/>
       <c r="D756" t="str" cm="1">
         <f t="array" aca="1" ref="D756" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C756))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C756))=1), "C", "")</f>
         <v/>
@@ -54383,7 +53651,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B757" s="4"/>
       <c r="D757" t="str" cm="1">
         <f t="array" aca="1" ref="D757" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C757))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C757))=1), "C", "")</f>
         <v/>
@@ -54406,7 +53673,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B758" s="4"/>
       <c r="D758" t="str" cm="1">
         <f t="array" aca="1" ref="D758" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C758))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C758))=1), "C", "")</f>
         <v/>
@@ -54429,7 +53695,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B759" s="4"/>
       <c r="D759" t="str" cm="1">
         <f t="array" aca="1" ref="D759" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C759))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C759))=1), "C", "")</f>
         <v/>
@@ -54452,7 +53717,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B760" s="4"/>
       <c r="D760" t="str" cm="1">
         <f t="array" aca="1" ref="D760" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C760))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C760))=1), "C", "")</f>
         <v/>
@@ -54475,7 +53739,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B761" s="4"/>
       <c r="D761" t="str" cm="1">
         <f t="array" aca="1" ref="D761" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C761))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C761))=1), "C", "")</f>
         <v/>
@@ -54498,7 +53761,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B762" s="4"/>
       <c r="D762" t="str" cm="1">
         <f t="array" aca="1" ref="D762" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C762))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C762))=1), "C", "")</f>
         <v/>
@@ -54521,7 +53783,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B763" s="4"/>
       <c r="D763" t="str" cm="1">
         <f t="array" aca="1" ref="D763" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C763))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C763))=1), "C", "")</f>
         <v/>
@@ -54544,7 +53805,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B764" s="4"/>
       <c r="D764" t="str" cm="1">
         <f t="array" aca="1" ref="D764" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C764))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C764))=1), "C", "")</f>
         <v/>
@@ -54567,7 +53827,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B765" s="4"/>
       <c r="D765" t="str" cm="1">
         <f t="array" aca="1" ref="D765" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C765))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C765))=1), "C", "")</f>
         <v/>
@@ -54590,7 +53849,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B766" s="4"/>
       <c r="D766" t="str" cm="1">
         <f t="array" aca="1" ref="D766" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C766))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C766))=1), "C", "")</f>
         <v/>
@@ -54613,7 +53871,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B767" s="4"/>
       <c r="D767" t="str" cm="1">
         <f t="array" aca="1" ref="D767" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C767))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C767))=1), "C", "")</f>
         <v/>
@@ -54636,7 +53893,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B768" s="4"/>
       <c r="D768" t="str" cm="1">
         <f t="array" aca="1" ref="D768" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C768))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C768))=1), "C", "")</f>
         <v/>
@@ -54659,7 +53915,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B769" s="4"/>
       <c r="D769" t="str" cm="1">
         <f t="array" aca="1" ref="D769" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C769))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C769))=1), "C", "")</f>
         <v/>
@@ -54682,7 +53937,6 @@
         <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
-      <c r="B770" s="4"/>
       <c r="D770" t="str" cm="1">
         <f t="array" aca="1" ref="D770" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C770))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C770))=1), "C", "")</f>
         <v/>
@@ -54705,7 +53959,6 @@
         <f t="shared" ref="A771:A834" ca="1" si="40">IF(AND(C771&lt;&gt;"",D771&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D771),"_"),C771),"")</f>
         <v/>
       </c>
-      <c r="B771" s="4"/>
       <c r="D771" t="str" cm="1">
         <f t="array" aca="1" ref="D771" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C771))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C771))=1), "C", "")</f>
         <v/>
@@ -54728,7 +53981,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B772" s="4"/>
       <c r="D772" t="str" cm="1">
         <f t="array" aca="1" ref="D772" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C772))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C772))=1), "C", "")</f>
         <v/>
@@ -54751,7 +54003,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B773" s="4"/>
       <c r="D773" t="str" cm="1">
         <f t="array" aca="1" ref="D773" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C773))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C773))=1), "C", "")</f>
         <v/>
@@ -54774,7 +54025,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B774" s="4"/>
       <c r="D774" t="str" cm="1">
         <f t="array" aca="1" ref="D774" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C774))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C774))=1), "C", "")</f>
         <v/>
@@ -54797,7 +54047,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B775" s="4"/>
       <c r="D775" t="str" cm="1">
         <f t="array" aca="1" ref="D775" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C775))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C775))=1), "C", "")</f>
         <v/>
@@ -54820,7 +54069,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B776" s="4"/>
       <c r="D776" t="str" cm="1">
         <f t="array" aca="1" ref="D776" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C776))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C776))=1), "C", "")</f>
         <v/>
@@ -54843,7 +54091,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B777" s="4"/>
       <c r="D777" t="str" cm="1">
         <f t="array" aca="1" ref="D777" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C777))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C777))=1), "C", "")</f>
         <v/>
@@ -54866,7 +54113,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B778" s="4"/>
       <c r="D778" t="str" cm="1">
         <f t="array" aca="1" ref="D778" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C778))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C778))=1), "C", "")</f>
         <v/>
@@ -54889,7 +54135,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B779" s="4"/>
       <c r="D779" t="str" cm="1">
         <f t="array" aca="1" ref="D779" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C779))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C779))=1), "C", "")</f>
         <v/>
@@ -54912,7 +54157,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B780" s="4"/>
       <c r="D780" t="str" cm="1">
         <f t="array" aca="1" ref="D780" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C780))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C780))=1), "C", "")</f>
         <v/>
@@ -54935,7 +54179,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B781" s="4"/>
       <c r="D781" t="str" cm="1">
         <f t="array" aca="1" ref="D781" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C781))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C781))=1), "C", "")</f>
         <v/>
@@ -54958,7 +54201,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B782" s="4"/>
       <c r="D782" t="str" cm="1">
         <f t="array" aca="1" ref="D782" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C782))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C782))=1), "C", "")</f>
         <v/>
@@ -54981,7 +54223,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B783" s="4"/>
       <c r="D783" t="str" cm="1">
         <f t="array" aca="1" ref="D783" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C783))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C783))=1), "C", "")</f>
         <v/>
@@ -55004,7 +54245,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B784" s="4"/>
       <c r="D784" t="str" cm="1">
         <f t="array" aca="1" ref="D784" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C784))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C784))=1), "C", "")</f>
         <v/>
@@ -55027,7 +54267,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B785" s="4"/>
       <c r="D785" t="str" cm="1">
         <f t="array" aca="1" ref="D785" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C785))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C785))=1), "C", "")</f>
         <v/>
@@ -55050,7 +54289,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B786" s="4"/>
       <c r="D786" t="str" cm="1">
         <f t="array" aca="1" ref="D786" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C786))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C786))=1), "C", "")</f>
         <v/>
@@ -55073,7 +54311,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B787" s="4"/>
       <c r="D787" t="str" cm="1">
         <f t="array" aca="1" ref="D787" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C787))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C787))=1), "C", "")</f>
         <v/>
@@ -55096,7 +54333,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B788" s="4"/>
       <c r="D788" t="str" cm="1">
         <f t="array" aca="1" ref="D788" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C788))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C788))=1), "C", "")</f>
         <v/>
@@ -55119,7 +54355,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B789" s="4"/>
       <c r="D789" t="str" cm="1">
         <f t="array" aca="1" ref="D789" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C789))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C789))=1), "C", "")</f>
         <v/>
@@ -55142,7 +54377,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B790" s="4"/>
       <c r="D790" t="str" cm="1">
         <f t="array" aca="1" ref="D790" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C790))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C790))=1), "C", "")</f>
         <v/>
@@ -55165,7 +54399,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B791" s="4"/>
       <c r="D791" t="str" cm="1">
         <f t="array" aca="1" ref="D791" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C791))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C791))=1), "C", "")</f>
         <v/>
@@ -55188,7 +54421,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B792" s="4"/>
       <c r="D792" t="str" cm="1">
         <f t="array" aca="1" ref="D792" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C792))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C792))=1), "C", "")</f>
         <v/>
@@ -55211,7 +54443,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B793" s="4"/>
       <c r="D793" t="str" cm="1">
         <f t="array" aca="1" ref="D793" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C793))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C793))=1), "C", "")</f>
         <v/>
@@ -55234,7 +54465,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B794" s="4"/>
       <c r="D794" t="str" cm="1">
         <f t="array" aca="1" ref="D794" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C794))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C794))=1), "C", "")</f>
         <v/>
@@ -55257,7 +54487,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B795" s="4"/>
       <c r="D795" t="str" cm="1">
         <f t="array" aca="1" ref="D795" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C795))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C795))=1), "C", "")</f>
         <v/>
@@ -55280,7 +54509,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B796" s="4"/>
       <c r="D796" t="str" cm="1">
         <f t="array" aca="1" ref="D796" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C796))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C796))=1), "C", "")</f>
         <v/>
@@ -55303,7 +54531,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B797" s="4"/>
       <c r="D797" t="str" cm="1">
         <f t="array" aca="1" ref="D797" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C797))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C797))=1), "C", "")</f>
         <v/>
@@ -55326,7 +54553,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B798" s="4"/>
       <c r="D798" t="str" cm="1">
         <f t="array" aca="1" ref="D798" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C798))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C798))=1), "C", "")</f>
         <v/>
@@ -55349,7 +54575,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B799" s="4"/>
       <c r="D799" t="str" cm="1">
         <f t="array" aca="1" ref="D799" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C799))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C799))=1), "C", "")</f>
         <v/>
@@ -55372,7 +54597,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B800" s="4"/>
       <c r="D800" t="str" cm="1">
         <f t="array" aca="1" ref="D800" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C800))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C800))=1), "C", "")</f>
         <v/>
@@ -55395,7 +54619,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B801" s="4"/>
       <c r="D801" t="str" cm="1">
         <f t="array" aca="1" ref="D801" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C801))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C801))=1), "C", "")</f>
         <v/>
@@ -55418,7 +54641,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B802" s="4"/>
       <c r="D802" t="str" cm="1">
         <f t="array" aca="1" ref="D802" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C802))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C802))=1), "C", "")</f>
         <v/>
@@ -55441,7 +54663,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B803" s="4"/>
       <c r="D803" t="str" cm="1">
         <f t="array" aca="1" ref="D803" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C803))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C803))=1), "C", "")</f>
         <v/>
@@ -55464,7 +54685,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B804" s="4"/>
       <c r="D804" t="str" cm="1">
         <f t="array" aca="1" ref="D804" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C804))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C804))=1), "C", "")</f>
         <v/>
@@ -55487,7 +54707,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B805" s="4"/>
       <c r="D805" t="str" cm="1">
         <f t="array" aca="1" ref="D805" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C805))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C805))=1), "C", "")</f>
         <v/>
@@ -55510,7 +54729,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B806" s="4"/>
       <c r="D806" t="str" cm="1">
         <f t="array" aca="1" ref="D806" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C806))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C806))=1), "C", "")</f>
         <v/>
@@ -55533,7 +54751,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B807" s="4"/>
       <c r="D807" t="str" cm="1">
         <f t="array" aca="1" ref="D807" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C807))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C807))=1), "C", "")</f>
         <v/>
@@ -55556,7 +54773,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B808" s="4"/>
       <c r="D808" t="str" cm="1">
         <f t="array" aca="1" ref="D808" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C808))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C808))=1), "C", "")</f>
         <v/>
@@ -55579,7 +54795,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B809" s="4"/>
       <c r="D809" t="str" cm="1">
         <f t="array" aca="1" ref="D809" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C809))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C809))=1), "C", "")</f>
         <v/>
@@ -55602,7 +54817,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B810" s="4"/>
       <c r="D810" t="str" cm="1">
         <f t="array" aca="1" ref="D810" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C810))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C810))=1), "C", "")</f>
         <v/>
@@ -55625,7 +54839,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B811" s="4"/>
       <c r="D811" t="str" cm="1">
         <f t="array" aca="1" ref="D811" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C811))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C811))=1), "C", "")</f>
         <v/>
@@ -55648,7 +54861,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B812" s="4"/>
       <c r="D812" t="str" cm="1">
         <f t="array" aca="1" ref="D812" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C812))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C812))=1), "C", "")</f>
         <v/>
@@ -55671,7 +54883,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B813" s="4"/>
       <c r="D813" t="str" cm="1">
         <f t="array" aca="1" ref="D813" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C813))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C813))=1), "C", "")</f>
         <v/>
@@ -55694,7 +54905,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B814" s="4"/>
       <c r="D814" t="str" cm="1">
         <f t="array" aca="1" ref="D814" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C814))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C814))=1), "C", "")</f>
         <v/>
@@ -55717,7 +54927,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B815" s="4"/>
       <c r="D815" t="str" cm="1">
         <f t="array" aca="1" ref="D815" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C815))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C815))=1), "C", "")</f>
         <v/>
@@ -55740,7 +54949,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B816" s="4"/>
       <c r="D816" t="str" cm="1">
         <f t="array" aca="1" ref="D816" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C816))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C816))=1), "C", "")</f>
         <v/>
@@ -55763,7 +54971,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B817" s="4"/>
       <c r="D817" t="str" cm="1">
         <f t="array" aca="1" ref="D817" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C817))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C817))=1), "C", "")</f>
         <v/>
@@ -55786,7 +54993,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B818" s="4"/>
       <c r="D818" t="str" cm="1">
         <f t="array" aca="1" ref="D818" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C818))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C818))=1), "C", "")</f>
         <v/>
@@ -55809,7 +55015,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B819" s="4"/>
       <c r="D819" t="str" cm="1">
         <f t="array" aca="1" ref="D819" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C819))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C819))=1), "C", "")</f>
         <v/>
@@ -55832,7 +55037,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B820" s="4"/>
       <c r="D820" t="str" cm="1">
         <f t="array" aca="1" ref="D820" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C820))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C820))=1), "C", "")</f>
         <v/>
@@ -55855,7 +55059,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B821" s="4"/>
       <c r="D821" t="str" cm="1">
         <f t="array" aca="1" ref="D821" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C821))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C821))=1), "C", "")</f>
         <v/>
@@ -55878,7 +55081,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B822" s="4"/>
       <c r="D822" t="str" cm="1">
         <f t="array" aca="1" ref="D822" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C822))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C822))=1), "C", "")</f>
         <v/>
@@ -55901,7 +55103,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B823" s="4"/>
       <c r="D823" t="str" cm="1">
         <f t="array" aca="1" ref="D823" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C823))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C823))=1), "C", "")</f>
         <v/>
@@ -55924,7 +55125,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B824" s="4"/>
       <c r="D824" t="str" cm="1">
         <f t="array" aca="1" ref="D824" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C824))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C824))=1), "C", "")</f>
         <v/>
@@ -55947,7 +55147,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B825" s="4"/>
       <c r="D825" t="str" cm="1">
         <f t="array" aca="1" ref="D825" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C825))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C825))=1), "C", "")</f>
         <v/>
@@ -55970,7 +55169,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B826" s="4"/>
       <c r="D826" t="str" cm="1">
         <f t="array" aca="1" ref="D826" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C826))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C826))=1), "C", "")</f>
         <v/>
@@ -55993,7 +55191,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B827" s="4"/>
       <c r="D827" t="str" cm="1">
         <f t="array" aca="1" ref="D827" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C827))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C827))=1), "C", "")</f>
         <v/>
@@ -56016,7 +55213,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B828" s="4"/>
       <c r="D828" t="str" cm="1">
         <f t="array" aca="1" ref="D828" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C828))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C828))=1), "C", "")</f>
         <v/>
@@ -56039,7 +55235,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B829" s="4"/>
       <c r="D829" t="str" cm="1">
         <f t="array" aca="1" ref="D829" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C829))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C829))=1), "C", "")</f>
         <v/>
@@ -56062,7 +55257,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B830" s="4"/>
       <c r="D830" t="str" cm="1">
         <f t="array" aca="1" ref="D830" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C830))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C830))=1), "C", "")</f>
         <v/>
@@ -56085,7 +55279,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B831" s="4"/>
       <c r="D831" t="str" cm="1">
         <f t="array" aca="1" ref="D831" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C831))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C831))=1), "C", "")</f>
         <v/>
@@ -56108,7 +55301,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B832" s="4"/>
       <c r="D832" t="str" cm="1">
         <f t="array" aca="1" ref="D832" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C832))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C832))=1), "C", "")</f>
         <v/>
@@ -56131,7 +55323,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B833" s="4"/>
       <c r="D833" t="str" cm="1">
         <f t="array" aca="1" ref="D833" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C833))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C833))=1), "C", "")</f>
         <v/>
@@ -56154,7 +55345,6 @@
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="B834" s="4"/>
       <c r="D834" t="str" cm="1">
         <f t="array" aca="1" ref="D834" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C834))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C834))=1), "C", "")</f>
         <v/>
@@ -56177,7 +55367,6 @@
         <f t="shared" ref="A835:A898" ca="1" si="44">IF(AND(C835&lt;&gt;"",D835&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D835),"_"),C835),"")</f>
         <v/>
       </c>
-      <c r="B835" s="4"/>
       <c r="D835" t="str" cm="1">
         <f t="array" aca="1" ref="D835" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C835))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C835))=1), "C", "")</f>
         <v/>
@@ -56200,7 +55389,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B836" s="4"/>
       <c r="D836" t="str" cm="1">
         <f t="array" aca="1" ref="D836" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C836))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C836))=1), "C", "")</f>
         <v/>
@@ -56223,7 +55411,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B837" s="4"/>
       <c r="D837" t="str" cm="1">
         <f t="array" aca="1" ref="D837" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C837))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C837))=1), "C", "")</f>
         <v/>
@@ -56246,7 +55433,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B838" s="4"/>
       <c r="D838" t="str" cm="1">
         <f t="array" aca="1" ref="D838" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C838))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C838))=1), "C", "")</f>
         <v/>
@@ -56269,7 +55455,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B839" s="4"/>
       <c r="D839" t="str" cm="1">
         <f t="array" aca="1" ref="D839" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C839))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C839))=1), "C", "")</f>
         <v/>
@@ -56292,7 +55477,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B840" s="4"/>
       <c r="D840" t="str" cm="1">
         <f t="array" aca="1" ref="D840" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C840))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C840))=1), "C", "")</f>
         <v/>
@@ -56315,7 +55499,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B841" s="4"/>
       <c r="D841" t="str" cm="1">
         <f t="array" aca="1" ref="D841" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C841))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C841))=1), "C", "")</f>
         <v/>
@@ -56338,7 +55521,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B842" s="4"/>
       <c r="D842" t="str" cm="1">
         <f t="array" aca="1" ref="D842" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C842))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C842))=1), "C", "")</f>
         <v/>
@@ -56361,7 +55543,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B843" s="4"/>
       <c r="D843" t="str" cm="1">
         <f t="array" aca="1" ref="D843" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C843))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C843))=1), "C", "")</f>
         <v/>
@@ -56384,7 +55565,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B844" s="4"/>
       <c r="D844" t="str" cm="1">
         <f t="array" aca="1" ref="D844" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C844))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C844))=1), "C", "")</f>
         <v/>
@@ -56407,7 +55587,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B845" s="4"/>
       <c r="D845" t="str" cm="1">
         <f t="array" aca="1" ref="D845" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C845))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C845))=1), "C", "")</f>
         <v/>
@@ -56430,7 +55609,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B846" s="4"/>
       <c r="D846" t="str" cm="1">
         <f t="array" aca="1" ref="D846" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C846))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C846))=1), "C", "")</f>
         <v/>
@@ -56453,7 +55631,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B847" s="4"/>
       <c r="D847" t="str" cm="1">
         <f t="array" aca="1" ref="D847" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C847))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C847))=1), "C", "")</f>
         <v/>
@@ -56476,7 +55653,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B848" s="4"/>
       <c r="D848" t="str" cm="1">
         <f t="array" aca="1" ref="D848" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C848))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C848))=1), "C", "")</f>
         <v/>
@@ -56499,7 +55675,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B849" s="4"/>
       <c r="D849" t="str" cm="1">
         <f t="array" aca="1" ref="D849" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C849))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C849))=1), "C", "")</f>
         <v/>
@@ -56522,7 +55697,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B850" s="4"/>
       <c r="D850" t="str" cm="1">
         <f t="array" aca="1" ref="D850" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C850))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C850))=1), "C", "")</f>
         <v/>
@@ -56545,7 +55719,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B851" s="4"/>
       <c r="D851" t="str" cm="1">
         <f t="array" aca="1" ref="D851" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C851))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C851))=1), "C", "")</f>
         <v/>
@@ -56568,7 +55741,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B852" s="4"/>
       <c r="D852" t="str" cm="1">
         <f t="array" aca="1" ref="D852" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C852))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C852))=1), "C", "")</f>
         <v/>
@@ -56591,7 +55763,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B853" s="4"/>
       <c r="D853" t="str" cm="1">
         <f t="array" aca="1" ref="D853" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C853))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C853))=1), "C", "")</f>
         <v/>
@@ -56614,7 +55785,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B854" s="4"/>
       <c r="D854" t="str" cm="1">
         <f t="array" aca="1" ref="D854" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C854))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C854))=1), "C", "")</f>
         <v/>
@@ -56637,7 +55807,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B855" s="4"/>
       <c r="D855" t="str" cm="1">
         <f t="array" aca="1" ref="D855" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C855))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C855))=1), "C", "")</f>
         <v/>
@@ -56660,7 +55829,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B856" s="4"/>
       <c r="D856" t="str" cm="1">
         <f t="array" aca="1" ref="D856" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C856))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C856))=1), "C", "")</f>
         <v/>
@@ -56683,7 +55851,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B857" s="4"/>
       <c r="D857" t="str" cm="1">
         <f t="array" aca="1" ref="D857" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C857))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C857))=1), "C", "")</f>
         <v/>
@@ -56706,7 +55873,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B858" s="4"/>
       <c r="D858" t="str" cm="1">
         <f t="array" aca="1" ref="D858" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C858))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C858))=1), "C", "")</f>
         <v/>
@@ -56729,7 +55895,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B859" s="4"/>
       <c r="D859" t="str" cm="1">
         <f t="array" aca="1" ref="D859" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C859))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C859))=1), "C", "")</f>
         <v/>
@@ -56752,7 +55917,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B860" s="4"/>
       <c r="D860" t="str" cm="1">
         <f t="array" aca="1" ref="D860" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C860))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C860))=1), "C", "")</f>
         <v/>
@@ -56775,7 +55939,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B861" s="4"/>
       <c r="D861" t="str" cm="1">
         <f t="array" aca="1" ref="D861" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C861))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C861))=1), "C", "")</f>
         <v/>
@@ -56798,7 +55961,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B862" s="4"/>
       <c r="D862" t="str" cm="1">
         <f t="array" aca="1" ref="D862" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C862))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C862))=1), "C", "")</f>
         <v/>
@@ -56821,7 +55983,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B863" s="4"/>
       <c r="D863" t="str" cm="1">
         <f t="array" aca="1" ref="D863" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C863))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C863))=1), "C", "")</f>
         <v/>
@@ -56844,7 +56005,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B864" s="4"/>
       <c r="D864" t="str" cm="1">
         <f t="array" aca="1" ref="D864" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C864))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C864))=1), "C", "")</f>
         <v/>
@@ -56867,7 +56027,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B865" s="4"/>
       <c r="D865" t="str" cm="1">
         <f t="array" aca="1" ref="D865" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C865))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C865))=1), "C", "")</f>
         <v/>
@@ -56890,7 +56049,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B866" s="4"/>
       <c r="D866" t="str" cm="1">
         <f t="array" aca="1" ref="D866" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C866))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C866))=1), "C", "")</f>
         <v/>
@@ -56913,7 +56071,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B867" s="4"/>
       <c r="D867" t="str" cm="1">
         <f t="array" aca="1" ref="D867" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C867))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C867))=1), "C", "")</f>
         <v/>
@@ -56936,7 +56093,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B868" s="4"/>
       <c r="D868" t="str" cm="1">
         <f t="array" aca="1" ref="D868" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C868))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C868))=1), "C", "")</f>
         <v/>
@@ -56959,7 +56115,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B869" s="4"/>
       <c r="D869" t="str" cm="1">
         <f t="array" aca="1" ref="D869" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C869))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C869))=1), "C", "")</f>
         <v/>
@@ -56982,7 +56137,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B870" s="4"/>
       <c r="D870" t="str" cm="1">
         <f t="array" aca="1" ref="D870" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C870))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C870))=1), "C", "")</f>
         <v/>
@@ -57005,7 +56159,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B871" s="4"/>
       <c r="D871" t="str" cm="1">
         <f t="array" aca="1" ref="D871" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C871))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C871))=1), "C", "")</f>
         <v/>
@@ -57028,7 +56181,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B872" s="4"/>
       <c r="D872" t="str" cm="1">
         <f t="array" aca="1" ref="D872" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C872))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C872))=1), "C", "")</f>
         <v/>
@@ -57051,7 +56203,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B873" s="4"/>
       <c r="D873" t="str" cm="1">
         <f t="array" aca="1" ref="D873" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C873))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C873))=1), "C", "")</f>
         <v/>
@@ -57074,7 +56225,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B874" s="4"/>
       <c r="D874" t="str" cm="1">
         <f t="array" aca="1" ref="D874" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C874))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C874))=1), "C", "")</f>
         <v/>
@@ -57097,7 +56247,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B875" s="4"/>
       <c r="D875" t="str" cm="1">
         <f t="array" aca="1" ref="D875" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C875))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C875))=1), "C", "")</f>
         <v/>
@@ -57120,7 +56269,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B876" s="4"/>
       <c r="D876" t="str" cm="1">
         <f t="array" aca="1" ref="D876" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C876))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C876))=1), "C", "")</f>
         <v/>
@@ -57143,7 +56291,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B877" s="4"/>
       <c r="D877" t="str" cm="1">
         <f t="array" aca="1" ref="D877" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C877))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C877))=1), "C", "")</f>
         <v/>
@@ -57166,7 +56313,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B878" s="4"/>
       <c r="D878" t="str" cm="1">
         <f t="array" aca="1" ref="D878" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C878))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C878))=1), "C", "")</f>
         <v/>
@@ -57189,7 +56335,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B879" s="4"/>
       <c r="D879" t="str" cm="1">
         <f t="array" aca="1" ref="D879" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C879))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C879))=1), "C", "")</f>
         <v/>
@@ -57212,7 +56357,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B880" s="4"/>
       <c r="D880" t="str" cm="1">
         <f t="array" aca="1" ref="D880" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C880))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C880))=1), "C", "")</f>
         <v/>
@@ -57235,7 +56379,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B881" s="4"/>
       <c r="D881" t="str" cm="1">
         <f t="array" aca="1" ref="D881" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C881))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C881))=1), "C", "")</f>
         <v/>
@@ -57258,7 +56401,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B882" s="4"/>
       <c r="D882" t="str" cm="1">
         <f t="array" aca="1" ref="D882" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C882))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C882))=1), "C", "")</f>
         <v/>
@@ -57281,7 +56423,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B883" s="4"/>
       <c r="D883" t="str" cm="1">
         <f t="array" aca="1" ref="D883" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C883))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C883))=1), "C", "")</f>
         <v/>
@@ -57304,7 +56445,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B884" s="4"/>
       <c r="D884" t="str" cm="1">
         <f t="array" aca="1" ref="D884" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C884))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C884))=1), "C", "")</f>
         <v/>
@@ -57327,7 +56467,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B885" s="4"/>
       <c r="D885" t="str" cm="1">
         <f t="array" aca="1" ref="D885" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C885))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C885))=1), "C", "")</f>
         <v/>
@@ -57350,7 +56489,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B886" s="4"/>
       <c r="D886" t="str" cm="1">
         <f t="array" aca="1" ref="D886" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C886))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C886))=1), "C", "")</f>
         <v/>
@@ -57373,7 +56511,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B887" s="4"/>
       <c r="D887" t="str" cm="1">
         <f t="array" aca="1" ref="D887" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C887))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C887))=1), "C", "")</f>
         <v/>
@@ -57396,7 +56533,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B888" s="4"/>
       <c r="D888" t="str" cm="1">
         <f t="array" aca="1" ref="D888" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C888))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C888))=1), "C", "")</f>
         <v/>
@@ -57419,7 +56555,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B889" s="4"/>
       <c r="D889" t="str" cm="1">
         <f t="array" aca="1" ref="D889" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C889))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C889))=1), "C", "")</f>
         <v/>
@@ -57442,7 +56577,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B890" s="4"/>
       <c r="D890" t="str" cm="1">
         <f t="array" aca="1" ref="D890" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C890))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C890))=1), "C", "")</f>
         <v/>
@@ -57465,7 +56599,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B891" s="4"/>
       <c r="D891" t="str" cm="1">
         <f t="array" aca="1" ref="D891" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C891))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C891))=1), "C", "")</f>
         <v/>
@@ -57488,7 +56621,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B892" s="4"/>
       <c r="D892" t="str" cm="1">
         <f t="array" aca="1" ref="D892" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C892))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C892))=1), "C", "")</f>
         <v/>
@@ -57511,7 +56643,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B893" s="4"/>
       <c r="D893" t="str" cm="1">
         <f t="array" aca="1" ref="D893" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C893))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C893))=1), "C", "")</f>
         <v/>
@@ -57534,7 +56665,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B894" s="4"/>
       <c r="D894" t="str" cm="1">
         <f t="array" aca="1" ref="D894" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C894))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C894))=1), "C", "")</f>
         <v/>
@@ -57557,7 +56687,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B895" s="4"/>
       <c r="D895" t="str" cm="1">
         <f t="array" aca="1" ref="D895" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C895))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C895))=1), "C", "")</f>
         <v/>
@@ -57580,7 +56709,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B896" s="4"/>
       <c r="D896" t="str" cm="1">
         <f t="array" aca="1" ref="D896" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C896))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C896))=1), "C", "")</f>
         <v/>
@@ -57603,7 +56731,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B897" s="4"/>
       <c r="D897" t="str" cm="1">
         <f t="array" aca="1" ref="D897" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C897))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C897))=1), "C", "")</f>
         <v/>
@@ -57626,7 +56753,6 @@
         <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
-      <c r="B898" s="4"/>
       <c r="D898" t="str" cm="1">
         <f t="array" aca="1" ref="D898" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C898))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C898))=1), "C", "")</f>
         <v/>
@@ -57649,7 +56775,6 @@
         <f t="shared" ref="A899:A962" ca="1" si="48">IF(AND(C899&lt;&gt;"",D899&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D899),"_"),C899),"")</f>
         <v/>
       </c>
-      <c r="B899" s="4"/>
       <c r="D899" t="str" cm="1">
         <f t="array" aca="1" ref="D899" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C899))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C899))=1), "C", "")</f>
         <v/>
@@ -57672,7 +56797,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B900" s="4"/>
       <c r="D900" t="str" cm="1">
         <f t="array" aca="1" ref="D900" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C900))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C900))=1), "C", "")</f>
         <v/>
@@ -57695,7 +56819,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B901" s="4"/>
       <c r="D901" t="str" cm="1">
         <f t="array" aca="1" ref="D901" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C901))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C901))=1), "C", "")</f>
         <v/>
@@ -57718,7 +56841,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B902" s="4"/>
       <c r="D902" t="str" cm="1">
         <f t="array" aca="1" ref="D902" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C902))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C902))=1), "C", "")</f>
         <v/>
@@ -57741,7 +56863,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B903" s="4"/>
       <c r="D903" t="str" cm="1">
         <f t="array" aca="1" ref="D903" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C903))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C903))=1), "C", "")</f>
         <v/>
@@ -57764,7 +56885,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B904" s="4"/>
       <c r="D904" t="str" cm="1">
         <f t="array" aca="1" ref="D904" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C904))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C904))=1), "C", "")</f>
         <v/>
@@ -57787,7 +56907,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B905" s="4"/>
       <c r="D905" t="str" cm="1">
         <f t="array" aca="1" ref="D905" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C905))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C905))=1), "C", "")</f>
         <v/>
@@ -57810,7 +56929,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B906" s="4"/>
       <c r="D906" t="str" cm="1">
         <f t="array" aca="1" ref="D906" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C906))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C906))=1), "C", "")</f>
         <v/>
@@ -57833,7 +56951,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B907" s="4"/>
       <c r="D907" t="str" cm="1">
         <f t="array" aca="1" ref="D907" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C907))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C907))=1), "C", "")</f>
         <v/>
@@ -57856,7 +56973,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B908" s="4"/>
       <c r="D908" t="str" cm="1">
         <f t="array" aca="1" ref="D908" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C908))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C908))=1), "C", "")</f>
         <v/>
@@ -57879,7 +56995,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B909" s="4"/>
       <c r="D909" t="str" cm="1">
         <f t="array" aca="1" ref="D909" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C909))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C909))=1), "C", "")</f>
         <v/>
@@ -57902,7 +57017,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B910" s="4"/>
       <c r="D910" t="str" cm="1">
         <f t="array" aca="1" ref="D910" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C910))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C910))=1), "C", "")</f>
         <v/>
@@ -57925,7 +57039,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B911" s="4"/>
       <c r="D911" t="str" cm="1">
         <f t="array" aca="1" ref="D911" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C911))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C911))=1), "C", "")</f>
         <v/>
@@ -57948,7 +57061,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B912" s="4"/>
       <c r="D912" t="str" cm="1">
         <f t="array" aca="1" ref="D912" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C912))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C912))=1), "C", "")</f>
         <v/>
@@ -57971,7 +57083,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B913" s="4"/>
       <c r="D913" t="str" cm="1">
         <f t="array" aca="1" ref="D913" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C913))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C913))=1), "C", "")</f>
         <v/>
@@ -57994,7 +57105,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B914" s="4"/>
       <c r="D914" t="str" cm="1">
         <f t="array" aca="1" ref="D914" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C914))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C914))=1), "C", "")</f>
         <v/>
@@ -58017,7 +57127,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B915" s="4"/>
       <c r="D915" t="str" cm="1">
         <f t="array" aca="1" ref="D915" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C915))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C915))=1), "C", "")</f>
         <v/>
@@ -58040,7 +57149,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B916" s="4"/>
       <c r="D916" t="str" cm="1">
         <f t="array" aca="1" ref="D916" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C916))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C916))=1), "C", "")</f>
         <v/>
@@ -58063,7 +57171,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B917" s="4"/>
       <c r="D917" t="str" cm="1">
         <f t="array" aca="1" ref="D917" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C917))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C917))=1), "C", "")</f>
         <v/>
@@ -58086,7 +57193,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B918" s="4"/>
       <c r="D918" t="str" cm="1">
         <f t="array" aca="1" ref="D918" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C918))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C918))=1), "C", "")</f>
         <v/>
@@ -58109,7 +57215,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B919" s="4"/>
       <c r="D919" t="str" cm="1">
         <f t="array" aca="1" ref="D919" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C919))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C919))=1), "C", "")</f>
         <v/>
@@ -58132,7 +57237,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B920" s="4"/>
       <c r="D920" t="str" cm="1">
         <f t="array" aca="1" ref="D920" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C920))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C920))=1), "C", "")</f>
         <v/>
@@ -58155,7 +57259,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B921" s="4"/>
       <c r="D921" t="str" cm="1">
         <f t="array" aca="1" ref="D921" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C921))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C921))=1), "C", "")</f>
         <v/>
@@ -58178,7 +57281,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B922" s="4"/>
       <c r="D922" t="str" cm="1">
         <f t="array" aca="1" ref="D922" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C922))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C922))=1), "C", "")</f>
         <v/>
@@ -58201,7 +57303,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B923" s="4"/>
       <c r="D923" t="str" cm="1">
         <f t="array" aca="1" ref="D923" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C923))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C923))=1), "C", "")</f>
         <v/>
@@ -58224,7 +57325,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B924" s="4"/>
       <c r="D924" t="str" cm="1">
         <f t="array" aca="1" ref="D924" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C924))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C924))=1), "C", "")</f>
         <v/>
@@ -58247,7 +57347,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B925" s="4"/>
       <c r="D925" t="str" cm="1">
         <f t="array" aca="1" ref="D925" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C925))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C925))=1), "C", "")</f>
         <v/>
@@ -58270,7 +57369,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B926" s="4"/>
       <c r="D926" t="str" cm="1">
         <f t="array" aca="1" ref="D926" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C926))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C926))=1), "C", "")</f>
         <v/>
@@ -58293,7 +57391,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B927" s="4"/>
       <c r="D927" t="str" cm="1">
         <f t="array" aca="1" ref="D927" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C927))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C927))=1), "C", "")</f>
         <v/>
@@ -58316,7 +57413,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B928" s="4"/>
       <c r="D928" t="str" cm="1">
         <f t="array" aca="1" ref="D928" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C928))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C928))=1), "C", "")</f>
         <v/>
@@ -58339,7 +57435,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B929" s="4"/>
       <c r="D929" t="str" cm="1">
         <f t="array" aca="1" ref="D929" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C929))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C929))=1), "C", "")</f>
         <v/>
@@ -58362,7 +57457,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B930" s="4"/>
       <c r="D930" t="str" cm="1">
         <f t="array" aca="1" ref="D930" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C930))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C930))=1), "C", "")</f>
         <v/>
@@ -58385,7 +57479,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B931" s="4"/>
       <c r="D931" t="str" cm="1">
         <f t="array" aca="1" ref="D931" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C931))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C931))=1), "C", "")</f>
         <v/>
@@ -58408,7 +57501,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B932" s="4"/>
       <c r="D932" t="str" cm="1">
         <f t="array" aca="1" ref="D932" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C932))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C932))=1), "C", "")</f>
         <v/>
@@ -58431,7 +57523,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B933" s="4"/>
       <c r="D933" t="str" cm="1">
         <f t="array" aca="1" ref="D933" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C933))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C933))=1), "C", "")</f>
         <v/>
@@ -58454,7 +57545,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B934" s="4"/>
       <c r="D934" t="str" cm="1">
         <f t="array" aca="1" ref="D934" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C934))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C934))=1), "C", "")</f>
         <v/>
@@ -58477,7 +57567,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B935" s="4"/>
       <c r="D935" t="str" cm="1">
         <f t="array" aca="1" ref="D935" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C935))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C935))=1), "C", "")</f>
         <v/>
@@ -58500,7 +57589,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B936" s="4"/>
       <c r="D936" t="str" cm="1">
         <f t="array" aca="1" ref="D936" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C936))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C936))=1), "C", "")</f>
         <v/>
@@ -58523,7 +57611,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B937" s="4"/>
       <c r="D937" t="str" cm="1">
         <f t="array" aca="1" ref="D937" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C937))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C937))=1), "C", "")</f>
         <v/>
@@ -58546,7 +57633,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B938" s="4"/>
       <c r="D938" t="str" cm="1">
         <f t="array" aca="1" ref="D938" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C938))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C938))=1), "C", "")</f>
         <v/>
@@ -58569,7 +57655,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B939" s="4"/>
       <c r="D939" t="str" cm="1">
         <f t="array" aca="1" ref="D939" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C939))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C939))=1), "C", "")</f>
         <v/>
@@ -58592,7 +57677,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B940" s="4"/>
       <c r="D940" t="str" cm="1">
         <f t="array" aca="1" ref="D940" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C940))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C940))=1), "C", "")</f>
         <v/>
@@ -58615,7 +57699,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B941" s="4"/>
       <c r="D941" t="str" cm="1">
         <f t="array" aca="1" ref="D941" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C941))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C941))=1), "C", "")</f>
         <v/>
@@ -58638,7 +57721,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B942" s="4"/>
       <c r="D942" t="str" cm="1">
         <f t="array" aca="1" ref="D942" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C942))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C942))=1), "C", "")</f>
         <v/>
@@ -58661,7 +57743,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B943" s="4"/>
       <c r="D943" t="str" cm="1">
         <f t="array" aca="1" ref="D943" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C943))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C943))=1), "C", "")</f>
         <v/>
@@ -58684,7 +57765,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B944" s="4"/>
       <c r="D944" t="str" cm="1">
         <f t="array" aca="1" ref="D944" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C944))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C944))=1), "C", "")</f>
         <v/>
@@ -58707,7 +57787,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B945" s="4"/>
       <c r="D945" t="str" cm="1">
         <f t="array" aca="1" ref="D945" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C945))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C945))=1), "C", "")</f>
         <v/>
@@ -58730,7 +57809,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B946" s="4"/>
       <c r="D946" t="str" cm="1">
         <f t="array" aca="1" ref="D946" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C946))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C946))=1), "C", "")</f>
         <v/>
@@ -58753,7 +57831,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B947" s="4"/>
       <c r="D947" t="str" cm="1">
         <f t="array" aca="1" ref="D947" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C947))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C947))=1), "C", "")</f>
         <v/>
@@ -58776,7 +57853,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B948" s="4"/>
       <c r="D948" t="str" cm="1">
         <f t="array" aca="1" ref="D948" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C948))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C948))=1), "C", "")</f>
         <v/>
@@ -58799,7 +57875,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B949" s="4"/>
       <c r="D949" t="str" cm="1">
         <f t="array" aca="1" ref="D949" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C949))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C949))=1), "C", "")</f>
         <v/>
@@ -58822,7 +57897,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B950" s="4"/>
       <c r="D950" t="str" cm="1">
         <f t="array" aca="1" ref="D950" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C950))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C950))=1), "C", "")</f>
         <v/>
@@ -58845,7 +57919,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B951" s="4"/>
       <c r="D951" t="str" cm="1">
         <f t="array" aca="1" ref="D951" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C951))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C951))=1), "C", "")</f>
         <v/>
@@ -58868,7 +57941,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B952" s="4"/>
       <c r="D952" t="str" cm="1">
         <f t="array" aca="1" ref="D952" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C952))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C952))=1), "C", "")</f>
         <v/>
@@ -58891,7 +57963,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B953" s="4"/>
       <c r="D953" t="str" cm="1">
         <f t="array" aca="1" ref="D953" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C953))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C953))=1), "C", "")</f>
         <v/>
@@ -58914,7 +57985,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B954" s="4"/>
       <c r="D954" t="str" cm="1">
         <f t="array" aca="1" ref="D954" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C954))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C954))=1), "C", "")</f>
         <v/>
@@ -58937,7 +58007,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B955" s="4"/>
       <c r="D955" t="str" cm="1">
         <f t="array" aca="1" ref="D955" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C955))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C955))=1), "C", "")</f>
         <v/>
@@ -58960,7 +58029,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B956" s="4"/>
       <c r="D956" t="str" cm="1">
         <f t="array" aca="1" ref="D956" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C956))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C956))=1), "C", "")</f>
         <v/>
@@ -58983,7 +58051,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B957" s="4"/>
       <c r="D957" t="str" cm="1">
         <f t="array" aca="1" ref="D957" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C957))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C957))=1), "C", "")</f>
         <v/>
@@ -59006,7 +58073,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B958" s="4"/>
       <c r="D958" t="str" cm="1">
         <f t="array" aca="1" ref="D958" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C958))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C958))=1), "C", "")</f>
         <v/>
@@ -59029,7 +58095,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B959" s="4"/>
       <c r="D959" t="str" cm="1">
         <f t="array" aca="1" ref="D959" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C959))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C959))=1), "C", "")</f>
         <v/>
@@ -59052,7 +58117,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B960" s="4"/>
       <c r="D960" t="str" cm="1">
         <f t="array" aca="1" ref="D960" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C960))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C960))=1), "C", "")</f>
         <v/>
@@ -59075,7 +58139,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B961" s="4"/>
       <c r="D961" t="str" cm="1">
         <f t="array" aca="1" ref="D961" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C961))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C961))=1), "C", "")</f>
         <v/>
@@ -59098,7 +58161,6 @@
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="B962" s="4"/>
       <c r="D962" t="str" cm="1">
         <f t="array" aca="1" ref="D962" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C962))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C962))=1), "C", "")</f>
         <v/>
@@ -59121,7 +58183,6 @@
         <f t="shared" ref="A963:A1000" ca="1" si="52">IF(AND(C963&lt;&gt;"",D963&lt;&gt;""),_xlfn.CONCAT(_xlfn.CONCAT(_xlfn.CONCAT("C_",D963),"_"),C963),"")</f>
         <v/>
       </c>
-      <c r="B963" s="4"/>
       <c r="D963" t="str" cm="1">
         <f t="array" aca="1" ref="D963" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C963))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C963))=1), "C", "")</f>
         <v/>
@@ -59144,7 +58205,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B964" s="4"/>
       <c r="D964" t="str" cm="1">
         <f t="array" aca="1" ref="D964" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C964))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C964))=1), "C", "")</f>
         <v/>
@@ -59167,7 +58227,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B965" s="4"/>
       <c r="D965" t="str" cm="1">
         <f t="array" aca="1" ref="D965" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C965))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C965))=1), "C", "")</f>
         <v/>
@@ -59190,7 +58249,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B966" s="4"/>
       <c r="D966" t="str" cm="1">
         <f t="array" aca="1" ref="D966" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C966))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C966))=1), "C", "")</f>
         <v/>
@@ -59213,7 +58271,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B967" s="4"/>
       <c r="D967" t="str" cm="1">
         <f t="array" aca="1" ref="D967" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C967))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C967))=1), "C", "")</f>
         <v/>
@@ -59236,7 +58293,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B968" s="4"/>
       <c r="D968" t="str" cm="1">
         <f t="array" aca="1" ref="D968" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C968))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C968))=1), "C", "")</f>
         <v/>
@@ -59259,7 +58315,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B969" s="4"/>
       <c r="D969" t="str" cm="1">
         <f t="array" aca="1" ref="D969" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C969))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C969))=1), "C", "")</f>
         <v/>
@@ -59282,7 +58337,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B970" s="4"/>
       <c r="D970" t="str" cm="1">
         <f t="array" aca="1" ref="D970" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C970))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C970))=1), "C", "")</f>
         <v/>
@@ -59305,7 +58359,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B971" s="4"/>
       <c r="D971" t="str" cm="1">
         <f t="array" aca="1" ref="D971" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C971))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C971))=1), "C", "")</f>
         <v/>
@@ -59328,7 +58381,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B972" s="4"/>
       <c r="D972" t="str" cm="1">
         <f t="array" aca="1" ref="D972" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C972))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C972))=1), "C", "")</f>
         <v/>
@@ -59351,7 +58403,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B973" s="4"/>
       <c r="D973" t="str" cm="1">
         <f t="array" aca="1" ref="D973" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C973))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C973))=1), "C", "")</f>
         <v/>
@@ -59374,7 +58425,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B974" s="4"/>
       <c r="D974" t="str" cm="1">
         <f t="array" aca="1" ref="D974" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C974))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C974))=1), "C", "")</f>
         <v/>
@@ -59397,7 +58447,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B975" s="4"/>
       <c r="D975" t="str" cm="1">
         <f t="array" aca="1" ref="D975" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C975))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C975))=1), "C", "")</f>
         <v/>
@@ -59420,7 +58469,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B976" s="4"/>
       <c r="D976" t="str" cm="1">
         <f t="array" aca="1" ref="D976" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C976))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C976))=1), "C", "")</f>
         <v/>
@@ -59443,7 +58491,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B977" s="4"/>
       <c r="D977" t="str" cm="1">
         <f t="array" aca="1" ref="D977" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C977))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C977))=1), "C", "")</f>
         <v/>
@@ -59466,7 +58513,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B978" s="4"/>
       <c r="D978" t="str" cm="1">
         <f t="array" aca="1" ref="D978" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C978))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C978))=1), "C", "")</f>
         <v/>
@@ -59489,7 +58535,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B979" s="4"/>
       <c r="D979" t="str" cm="1">
         <f t="array" aca="1" ref="D979" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C979))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C979))=1), "C", "")</f>
         <v/>
@@ -59512,7 +58557,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B980" s="4"/>
       <c r="D980" t="str" cm="1">
         <f t="array" aca="1" ref="D980" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C980))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C980))=1), "C", "")</f>
         <v/>
@@ -59535,7 +58579,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B981" s="4"/>
       <c r="D981" t="str" cm="1">
         <f t="array" aca="1" ref="D981" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C981))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C981))=1), "C", "")</f>
         <v/>
@@ -59558,7 +58601,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B982" s="4"/>
       <c r="D982" t="str" cm="1">
         <f t="array" aca="1" ref="D982" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C982))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C982))=1), "C", "")</f>
         <v/>
@@ -59581,7 +58623,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B983" s="4"/>
       <c r="D983" t="str" cm="1">
         <f t="array" aca="1" ref="D983" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C983))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C983))=1), "C", "")</f>
         <v/>
@@ -59604,7 +58645,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B984" s="4"/>
       <c r="D984" t="str" cm="1">
         <f t="array" aca="1" ref="D984" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C984))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C984))=1), "C", "")</f>
         <v/>
@@ -59627,7 +58667,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B985" s="4"/>
       <c r="D985" t="str" cm="1">
         <f t="array" aca="1" ref="D985" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C985))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C985))=1), "C", "")</f>
         <v/>
@@ -59650,7 +58689,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B986" s="4"/>
       <c r="D986" t="str" cm="1">
         <f t="array" aca="1" ref="D986" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C986))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C986))=1), "C", "")</f>
         <v/>
@@ -59673,7 +58711,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B987" s="4"/>
       <c r="D987" t="str" cm="1">
         <f t="array" aca="1" ref="D987" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C987))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C987))=1), "C", "")</f>
         <v/>
@@ -59696,7 +58733,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B988" s="4"/>
       <c r="D988" t="str" cm="1">
         <f t="array" aca="1" ref="D988" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C988))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C988))=1), "C", "")</f>
         <v/>
@@ -59719,7 +58755,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B989" s="4"/>
       <c r="D989" t="str" cm="1">
         <f t="array" aca="1" ref="D989" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C989))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C989))=1), "C", "")</f>
         <v/>
@@ -59742,7 +58777,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B990" s="4"/>
       <c r="D990" t="str" cm="1">
         <f t="array" aca="1" ref="D990" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C990))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C990))=1), "C", "")</f>
         <v/>
@@ -59765,7 +58799,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B991" s="4"/>
       <c r="D991" t="str" cm="1">
         <f t="array" aca="1" ref="D991" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C991))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C991))=1), "C", "")</f>
         <v/>
@@ -59788,7 +58821,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B992" s="4"/>
       <c r="D992" t="str" cm="1">
         <f t="array" aca="1" ref="D992" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C992))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C992))=1), "C", "")</f>
         <v/>
@@ -59811,7 +58843,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B993" s="4"/>
       <c r="D993" t="str" cm="1">
         <f t="array" aca="1" ref="D993" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C993))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C993))=1), "C", "")</f>
         <v/>
@@ -59834,7 +58865,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B994" s="4"/>
       <c r="D994" t="str" cm="1">
         <f t="array" aca="1" ref="D994" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C994))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C994))=1), "C", "")</f>
         <v/>
@@ -59857,7 +58887,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B995" s="4"/>
       <c r="D995" t="str" cm="1">
         <f t="array" aca="1" ref="D995" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C995))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C995))=1), "C", "")</f>
         <v/>
@@ -59880,7 +58909,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B996" s="4"/>
       <c r="D996" t="str" cm="1">
         <f t="array" aca="1" ref="D996" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C996))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C996))=1), "C", "")</f>
         <v/>
@@ -59903,7 +58931,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B997" s="4"/>
       <c r="D997" t="str" cm="1">
         <f t="array" aca="1" ref="D997" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C997))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C997))=1), "C", "")</f>
         <v/>
@@ -59926,7 +58953,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B998" s="4"/>
       <c r="D998" t="str" cm="1">
         <f t="array" aca="1" ref="D998" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C998))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C998))=1), "C", "")</f>
         <v/>
@@ -59949,7 +58975,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B999" s="4"/>
       <c r="D999" t="str" cm="1">
         <f t="array" aca="1" ref="D999" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C999))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C999))=1), "C", "")</f>
         <v/>
@@ -59972,7 +58997,6 @@
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
-      <c r="B1000" s="4"/>
       <c r="D1000" t="str" cm="1">
         <f t="array" aca="1" ref="D1000" ca="1">IF(OR(COUNTIF(damper_names,_xlfn.CONCAT("D_S_",C1000))=1, COUNTIF(damper_names,_xlfn.CONCAT("D_E_",C1000))=1), "C", "")</f>
         <v/>

--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B6AA59-0F8E-4A2E-B024-1D12A69AE559}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3732EBB-12C3-4F3E-B203-ECFC16F199BC}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>Cooling system name</t>
-  </si>
-  <si>
-    <t>Heating1</t>
-  </si>
-  <si>
-    <t>Ventilation1</t>
   </si>
   <si>
     <t>thermalMassHeatCapacity</t>
@@ -283,9 +277,6 @@
     <t>isContainedIn</t>
   </si>
   <si>
-    <t>Ventilation1;Heating1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -452,6 +443,15 @@
   </si>
   <si>
     <t>Heating coil temperature sensor;Heat recovery temperature sensor</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>V1;H1</t>
   </si>
 </sst>
 </file>
@@ -678,6 +678,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B0F6D5-8A47-48C4-A8B6-AFC37A61DB0A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1007,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1041,43 +1045,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1112,80 +1116,80 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1232,33 +1236,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,66 +1310,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1421,67 +1425,67 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1502,12 +1506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1539,21 +1543,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>466.54</v>
@@ -1609,102 +1613,102 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2">
         <f>4800/3600*1.225</f>
@@ -1713,22 +1717,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3" si="0">4800/3600*1.225</f>
@@ -6771,76 +6775,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L2">
         <f>3*515+2*572</f>
         <v>2689</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <f>125000</f>
@@ -12821,60 +12825,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <f>5*0.468</f>
@@ -22223,7 +22227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4B0EA7-434A-4CA3-97FE-A57E5232E2E7}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -22238,36 +22242,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -28279,54 +28283,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I2">
         <f>25000/3600*1.225</f>
@@ -34353,49 +34357,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -40376,16 +40380,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -40393,16 +40397,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3732EBB-12C3-4F3E-B203-ECFC16F199BC}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C24616-608C-4317-8AF4-C600E92AC839}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
@@ -680,10 +680,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -983,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B0F6D5-8A47-48C4-A8B6-AFC37A61DB0A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6750,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F9D35B-B713-4EC3-BA55-A4EE8F2F331C}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6840,8 +6836,8 @@
         <v>101</v>
       </c>
       <c r="L2">
-        <f>3*515+2*572</f>
-        <v>2689</v>
+        <f>(3*515+2*572)/5</f>
+        <v>537.79999999999995</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -12804,7 +12800,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C24616-608C-4317-8AF4-C600E92AC839}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB9F6173-A611-4FB8-9182-7E1484E7B311}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
@@ -6747,7 +6747,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,8 +6836,8 @@
         <v>101</v>
       </c>
       <c r="L2">
-        <f>(3*515+2*572)/5</f>
-        <v>537.79999999999995</v>
+        <f>(3*515+2*572)</f>
+        <v>2689</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>

--- a/twin4build/test/data/configuration_template_1space_BS2023.xlsx
+++ b/twin4build/test/data/configuration_template_1space_BS2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="86" documentId="8_{8660571A-4163-4FFB-91CA-F6ABE8F4478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB9F6173-A611-4FB8-9182-7E1484E7B311}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="3" r:id="rId1"/>
